--- a/ambassador/reviewer_sheets_excel/reviewer_3_sheet.xlsx
+++ b/ambassador/reviewer_sheets_excel/reviewer_3_sheet.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1837"/>
+  <dimension ref="A1:I1810"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,8 +430,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="18" customWidth="1" min="1" max="1"/>
-    <col width="17" customWidth="1" min="2" max="2"/>
-    <col width="16" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
     <col width="50" customWidth="1" min="4" max="4"/>
     <col width="30" customWidth="1" min="5" max="5"/>
     <col width="45" customWidth="1" min="6" max="6"/>
@@ -488,27 +488,28 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>298</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Ghassen</t>
+          <t>_No</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Fatnassi</t>
+          <t>response_</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
+nan
+        Ambassador Pitch:
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
 </t>
         </is>
       </c>
@@ -999,28 +1000,42 @@
       <c r="I28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>292</t>
-        </is>
+      <c r="A29" s="2" t="n">
+        <v>296</v>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>Carlos</t>
+          <t>Karla</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Guerra</t>
+          <t>Mauricio</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I love sharing the possibilities and how to materialize AI and ML solutions. I would love to:
+1. Hello World PyTorch
+Participate in designing introductory talks so that:
+∎People who know how to program learn how to develop AI/ML solutions
+∎First-time programmers (something similar to what code.org does with the "Hour of Code", but specialized in AI with PyTorch)
+2. Written Content Development(In English and Spanish)
+∎Introductory content for using PyTorch
+∎PyTorch connecting it with the entire AI ecosystem to showcase its versatility
+3. Organizing Events
+∎Opening spaces to moderate talks by experts who use PyTorch
+∎Seeking speakers to strengthen the PyTorch community in Spanish
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+https://www.linkedin.com/in/karla-doctor/
+https://karladoctormauricio.github.io/IA_KarlaDoctorMauricio.github.io/experience.html
+https://medium.com/@ka.doctormauricio</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr"/>
@@ -1510,28 +1525,44 @@
       <c r="I55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="inlineStr">
-        <is>
-          <t>285</t>
-        </is>
+      <c r="A56" s="2" t="n">
+        <v>289</v>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>Alexey</t>
+          <t>Alejandro</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Gruzdev</t>
+          <t>Arroyo</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I am from Bolivia and currently work remotely as an Artificial Research Engineer at Fogsphere, a UK-based company focused on developing AI-powered products. My work centers on the development, inference, and optimization of Large Language Models (LLMs) and Vision-Language models (VLMs), primarily using PyTorch and the Hugging Face Transformers library.
+As part of my contribution to the ambassador program, I plan to lead a series of in-person workshops in cities across Bolivia, with the goal of engaging the local community and introducing them to the professional use of PyTorch. In these workshops, I will demonstrate how PyTorch can be applied to real-world use cases, starting with the construction of convolutional neural networks (CNNs) using the torch.nn module. This approach will help participants understand the fundamentals of model design and implementation, providing a practical foundation to explore more advanced architectures.
+I will also cover the use of torch.cuda, offering a detailed explanation of the differences between CPU and GPU execution and providing hands-on guidance, an essential aspect of modern development environments.
+Another key topic will be the implementation of optimized models using ExecuTorch, which enables local execution across different backends. I aim to demonstrate how to integrate Hugging Face models and run them on various devices without relying on internet connectivity.
+These initiatives are specifically designed for the Bolivian context. Teaching foundational skills in model building and optimization is essential for democratizing access to knowledge and the professional use of PyTorch. On-device hardware optimization also plays a crucial role, especially in rural areas where internet access is limited or unavailable. In such settings, the ability to run AI models locally represents a high value opportunity for developers aiming to create solutions that make a tangible impact in their communities.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+I have experience leading tech communities. I am an organizer of the Google Developers Group Sucre, where I have coordinated various events, including:
+- Led BuildWithAI Bolivia 2024, the nation’s largest AI hackathon (200+ participants, 6/9 cities), where teams built AI-powered solutions addressing Bolivia’s key SDG challenges.
+- Awarded Campaign Master by Google for Developers for organizing the “ML Math Clubs” online series, a 3-part workshop on essential machine learning mathematics (+300 participants from Latin America).
+- Empowered 500+ Bolivian developers through 15+ immersive workshops and talks on Google’s cutting-edge AI stack (Gemini, Gemma, MediaPipe, PaliGemma).
+Additionally, I have been a speaker at several international events outside of Bolivia, among which the following stand out:
+- PyCon US, Turning Glasses into Smart Assistants: Open Source Vision-Language Models in Pittsburgh, US - 05/25
+- DevFest Xela, PaliGemma: Fusing Language and Vision for the Future of AI in Quetzaltenango, Guatemala - 10/24
+- DevFest Arequipa, PaliGemma: Fusing Language and Vision for the Future of AI in Arequipa, Peru - 10/ 24
+I also regularly share my experiences from various events I have participated in, such as Google I/O in US, the OpenAI Hackathon in Chile, FIRST Global in Greece, and many others, through my social media channels.
+https://www.linkedin.com/in/alejandronunezarroyo
+https://medium.com/@AleNunezArroyo</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr"/>
@@ -2021,10 +2052,8 @@
       <c r="I82" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="inlineStr">
-        <is>
-          <t>283</t>
-        </is>
+      <c r="A83" s="2" t="n">
+        <v>283</v>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
@@ -2038,11 +2067,15 @@
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Host workshops and events emerging open source culture and engaging Pytorch community in Tunisia.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr"/>
@@ -2532,28 +2565,30 @@
       <c r="I109" t="inlineStr"/>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
+      <c r="A110" s="2" t="n">
+        <v>282</v>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>Akash</t>
+          <t>Dhia</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>Agrawal</t>
+          <t>Naouali</t>
         </is>
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Organize workshops and events and engage the pytorch community within university student clubs across Tunisia
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr"/>
@@ -3043,28 +3078,45 @@
       <c r="I136" t="inlineStr"/>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="inlineStr">
-        <is>
-          <t>271</t>
-        </is>
+      <c r="A137" s="2" t="n">
+        <v>275</v>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>Kevin</t>
+          <t>Steven</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>Wang</t>
+          <t>Pousty</t>
         </is>
       </c>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a member of Red Hat's Open Source Program Office team for AI initiatives, I am specifically focused on PyTorch and vLLM. I'm uniquely positioned to advance PyTorch adoption across enterprise and open source communities. My role as a Red Hat representative to the Open AI Alliance provides direct insight into industry trends and strategic partnerships that would benefit the broader PyTorch ecosystem.
+**Proven Community Building Experience**
+I've spent over 20 years building and nurturing open source communities, starting with PostgreSQL in 2002 and FOSS4G since 2006. This experience translates directly to PyTorch community work. I've successfully organized multi-day conferences (deCarta developer conference), regional meetups (jsgeo events), and technical workshops (PostGIS days), consistently bringing together internal and external speakers while securing sponsor support. These events regularly drew 100-200 participants across different skill levels.
+**Immediate Contribution Plans**
+*Events &amp; Education*: I'll host regular PyTorch workshops targeting both newcomers and intermediate users, leveraging my 150+ talks experience. I've proposed a talk for PyTorch Conference on running PyTorch on containerized operating systems, which bridges the gap between data scientists and DevOps/Kubernetes practitioners.
+*Content Creation*: I'll focus on creating beginner-friendly PyTorch content, leveraging my strength in breaking down technically difficult concepts into accessible foundations. My tutorials will help newcomers understand PyTorch terminology and concepts, building the strong getting started experience that's essential for community growth.
+*Demonstration Applications*: I'm developing a multi-modal, agent-based application using PyTorch to help people with reduced vision understand uploaded picture content and find similar images for exploration - showcasing PyTorch's accessibility potential.
+*Cross-Community Outreach*: I'll introduce PyTorch to established communities where AI adoption is growing but not yet mainstream - including PostgreSQL, FOSS4G, and Kubernetes users. This represents significant untapped potential for PyTorch adoption.
+*Enterprise Bridge*: Through my Red Hat role, I'll facilitate connections between PyTorch Foundation priorities and enterprise needs, helping identify areas where corporate contributions can accelerate community goals.
+**Long-term Vision**
+My goal is expanding PyTorch's reach beyond traditional ML/AI circles into broader software engineering communities. By demonstrating practical applications and providing clear learning paths, I can help teams beginning their AI journey reduce their friction in adopting PyTorch, learn best practices, and encourage them to come join the community.
+This isn't theoretical - it's an extension of community work I've been doing successfully for two decades, now applied to PyTorch with the backing of a major enterprise platform.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+My YouTube channel has examples of my talks and content
+https://www.youtube.com/@thesteve0
+I am have also done many podcast interviews, such as 
+https://www.youtube.com/watch?v=Q4MdQaBaJy4
+https://www.apimatic.io/art-of-developer-experience/podcast-steve-pousty</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr"/>
@@ -3554,28 +3606,61 @@
       <c r="I163" t="inlineStr"/>
     </row>
     <row r="164">
-      <c r="A164" s="2" t="inlineStr">
-        <is>
-          <t>265</t>
-        </is>
+      <c r="A164" s="2" t="n">
+        <v>273</v>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>BYAOMBE</t>
+          <t>ABDULSALAM</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>Dieudonne</t>
+          <t>BANDE</t>
         </is>
       </c>
       <c r="D164" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Note: I previously submitted an incomplete version (now closed)—please consider this as my final and complete application. For better readability, you may paste it into a text editor.
+1. Knowledge-Sharing &amp; Content Creation
+As an ambassador, I’ll continue the PyTorch education work I began in 2020. On YouTube, I break down PyTorch’s neural network modules using pen and paper, walking through them step by step. My goal is to help researchers and beginners understand both the intuition and mechanics behind common layers and architectures.
+I aim for each PyTorch module to have a corresponding video that is simple to understand. This project is still ongoing, and I’ve already covered most major modules, including those used in generative models. My next focus will be on PyTorch’s reinforcement learning modules. 
+2. Increasing Access to ML Education Through PyTorch
+I want to help students see how the math they learn in school connects to machine learning and eventually to real-world applications.
+For example, torch.nn.Linear is the foundation of many important components in architectures like transformers. Exploring how the Linear Layer works can inspire ideas for more efficient or lightweight alternatives. That kind of curiosity and experimentation is exactly what PyTorch enables.
+To support this, I plan to collaborate with schools, tech hubs, and learning communities to deliver beginner-friendly lectures and hands-on workshops. These sessions will introduce PyTorch from the ground up with no prior programming or ML experience required.
+3. Hosting Workshops &amp; Events
+While my outreach in schools focuses on foundational exposure, I also plan to run more structured workshops for learners looking to deepen their understanding of PyTorch and ML., 
+I’ll organize both online and in-person events, depending on the needs of each community. These workshops will be:
+• Topic-specific, focused on deep dives into key PyTorch and ML concepts—for example:
+o   Selecting a layer from PyTorch’s documentation and walking through how it works in detail
+• Project-based and interactive, helping participants gain hands-on experience through guided coding exercises
+• Open to all, but particularly valuable for those who already have basic familiarity with Python or ML and want to grow their skills
+The goal is to bridge the gap between beginner knowledge and real-world ML application by showing how concepts translate into working models using PyTorch.
+Many software developers today use generative models like those from OpenAI without fully understanding the underlying technology. My workshops will also target these developers by offering them a clearer view of how the tools they use actually work under the hood.
+4. Mobile App for Learning PyTorch
+I believe large language models can help us build powerful learning tools more efficiently than ever. In addition to my upcoming mobile app Berry, which focuses on health management, I plan to develop a mobile companion app for learning PyTorch. The app will feature
+• Interactive flashcards on PyTorch modules
+• Code examples and model visualizations
+• Quick daily challenges like “build a model in 5 minutes”
+This will help make PyTorch education more fun and accessible—right from a phone. It could also be useful for children using iPads, essentially exposing them to PyTorch at an even earlier stage.
+5. Contribution to the PyTorch Ecosystem
+While education is my strongest area, I also plan to contribute directly to the PyTorch ecosystem by:
+• Submitting PRs for small bug fixes or documentation improvements on GitHub
+• Extending PyTorch tutorials, especially in reinforcement learning, based on what I’m building and teaching.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+- PyTorch YouTube Channel : https://www.youtube.com/@machinelearningwithpytorch/featured
+- Website: https: https://abdulsalam-bande.github.io/BandeLab/
+- Google Scholar: https://scholar.google.com/citations?user=OlrA3O8AAAAJ&amp;hl=en
+- Mobile Application (Berry):  https://www.youtube.com/watch?v=85bk4oybVKs
+- Resume : https://drive.google.com/file/d/1cCD4qCeIcoW6vcOhdDP8HW3MshFIcaDJ/view
+- Pytorch Developer Forum : https://discuss.pytorch.org/u/abdulsalambande/summary</t>
         </is>
       </c>
       <c r="E164" s="2" t="inlineStr"/>
@@ -4065,28 +4150,40 @@
       <c r="I190" t="inlineStr"/>
     </row>
     <row r="191">
-      <c r="A191" s="2" t="inlineStr">
-        <is>
-          <t>262</t>
-        </is>
+      <c r="A191" s="2" t="n">
+        <v>269</v>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>Kennedy</t>
+          <t>Giorgio</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>Uzoechi</t>
+          <t>Magno</t>
         </is>
       </c>
       <c r="D191" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a data scientist in mining industry, I am passionate about applying AI to solve real-world challenges. I am currently exploring PyTorch in an ongoing project that supports our company's sustainability initiatives. The initiative uses drone and LiDAR data to count and classify trees at mine site, enabling the estimation of carbon sequestration. We are developing computer vision models using PyTorch, which allows for efficient experimentation and deployment of deep learning models on complex geospatial data.
+Through this real-world application of using PyTorch, I plan to share how PyTorch can be used to solve meaningful, real-world problems, especially in non-traditional domains like environmental monitoring, sustainability initiatives and geospatial AI. I aim to inspire and educate others by showing practical workflows, challenges, and solutions that can help bridge the gap between research and impact.
+I will utilize my created data science Facebook page, GioData, to create and share educational, engaging, and beginner-friendly content across Facebook, TikTok, and YouTube. This includes short-form videos, tutorials, real-world demos, and insights from active projects. GioData will serve as a space where people can learn how to apply AI in meaningful ways, whether they're students, professionals, or simply curious about data science.
+Leveraging my experience as a student leader when I was still in college, I plan to tap into schools and universities to organize PyTorch workshops and training events, with the hope of launching official PyTorch Organizations within universities and colleges. These organizations will serve as hubs for learning, collaboration, and innovation, empowering students, the next AI practitioners, to build practical skills and contribute to the PyTorch community.
+In addition to school partnerships, I will organize webinars, mentoring sessions, and study groups to support learners of all levels. My mentorship approach focuses on project-based learning and practical application, empowering others to build confidence and capability in PyTorch.
+If I will be given a chance to become a PyTorch Ambassador, my vision is to grow a local and regional PyTorch community that is inclusive, applied, and impact-focused. By combining my technical expertise, content creation through my platform GioData, active community engagement, and mentorship, I aim to empower more people to explore and apply AI and specifically PyTorch, for meaningful and positive impact. I am especially passionate about reaching underrepresented domains and regions, helping bridge gaps and open opportunities for more diverse voices in AI.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+Aside from my full-time work, I am also a part-time Data Science Specialist Instructor at CIIT College of Arts and Technology (Philippines). I am teaching data analysis, statistics, machine learning, data science concepts and PowerBi. This teaching experience allows me to stay connected with aspiring data professionals and continuously refine my communication and mentorship skills.
+Additionally, I have served as an ASEAN Youth Ambassador last 2022, which has strengthened my leadership abilities and expanded my experience in community engagement, cross-cultural collaboration, and advocacy. This role fuels my passion for mentoring and empowering the next generation of leaders and innovators.
+CV Link: https://drive.google.com/file/d/1E67w71Tuy_DVzogNbF9pDhMTkoQjIz8v/view?usp=drivesdk
+LinkedIn Link: https://www.linkedin.com/in/giorgioarmanimagno/
+Published Research Link:https://ieeexplore.ieee.org/document/10109472
+GioData Facebook Page Link: https://www.facebook.com/giodataph</t>
         </is>
       </c>
       <c r="E191" s="2" t="inlineStr"/>
@@ -4576,28 +4673,36 @@
       <c r="I217" t="inlineStr"/>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="inlineStr">
-        <is>
-          <t>257</t>
-        </is>
+      <c r="A218" s="2" t="n">
+        <v>260</v>
       </c>
       <c r="B218" s="2" t="inlineStr">
         <is>
-          <t>Temidayo</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C218" s="2" t="inlineStr">
         <is>
-          <t>Gabriel</t>
+          <t>Ojodunwene</t>
         </is>
       </c>
       <c r="D218" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador, I aim to actively contribute to the growth and vibrancy of the community through engagement, education, and inclusive initiatives. My plans include:
+Engaging the Community: I will organize regular meetups and workshops—both virtual and in-person—to bring users together, share knowledge, and explore the latest developments in PyTorch.
+Hosting Events: I intend to lead community hackathons, model-building challenges, and open-source sprints to encourage hands-on collaboration and contributions to the PyTorch ecosystem.
+Mentoring: I will create mentorship opportunities for students and early-career practitioners to help them master PyTorch, build meaningful projects, and grow as contributors.
+Knowledge Sharing: I plan to develop tutorials, blog posts, and video content covering topics like optimization, deployment, and real-world use cases to support learners at all levels.
+Fostering Inclusion: I’m committed to making the PyTorch community more inclusive by collaborating with underrepresented groups and ensuring that events and resources are accessible to all.
+Through these efforts, I hope to empower others, broaden participation, and help the PyTorch initiative continue to thrive globally.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+https://x.com/VeeCryptz/status/1929903019555971282?t=xaRnPgatKWsTo_V06JakAw&amp;s=19</t>
         </is>
       </c>
       <c r="E218" s="2" t="inlineStr"/>
@@ -5087,28 +5192,35 @@
       <c r="I244" t="inlineStr"/>
     </row>
     <row r="245">
-      <c r="A245" s="2" t="inlineStr">
-        <is>
-          <t>254</t>
-        </is>
+      <c r="A245" s="2" t="n">
+        <v>258</v>
       </c>
       <c r="B245" s="2" t="inlineStr">
         <is>
-          <t>Braulio</t>
+          <t>Hussain</t>
         </is>
       </c>
       <c r="C245" s="2" t="inlineStr">
         <is>
-          <t>Otavalo</t>
+          <t>Salih</t>
         </is>
       </c>
       <c r="D245" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I'm a machine learning engineer and researcher , make talk with GDGsc for 3 years with college and TEDx speaker in 2025 all about AI and their techniques.
+* I can make contribution
+* share videos or tutorials
+* make a speak
+* mentor students
+(I think in arabic is best to support the community of arabs)
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E245" s="2" t="inlineStr"/>
@@ -5598,28 +5710,31 @@
       <c r="I271" t="inlineStr"/>
     </row>
     <row r="272">
-      <c r="A272" s="2" t="inlineStr">
-        <is>
-          <t>251</t>
-        </is>
+      <c r="A272" s="2" t="n">
+        <v>252</v>
       </c>
       <c r="B272" s="2" t="inlineStr">
         <is>
-          <t>Nimisha</t>
+          <t>Zaynul</t>
         </is>
       </c>
       <c r="C272" s="2" t="inlineStr">
         <is>
-          <t>Sukhwani</t>
+          <t>Miah</t>
         </is>
       </c>
       <c r="D272" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Sorry for resubmission as my previous submission got misclicked. As someone who has years of experience of hosting hands on workshops on PyTorch and it's best practices like feature extraction, data preparation and ensemble training as I've already worked on a PyTorch research project which I am using Audio Spectrogram Transformer (AST) Model, CNN14 model, key torch components and I'm using torch for Handles the deep learning component (AST model), Manages GPU acceleration when available, Provides the training loop and optimization for the transformer model, Processes audio spectrograms as tensors: https://github.com/azaynul10/Human_Analytics_codes . As a community builder, moderator and trusted user at Dev.To blogs I will write blog contents and create tutorial video contents on youtube here are my youtube and dev.to channel where you will find my experience on creating tutorials and demonstrating my project work: https://www.youtube.com/@zaynulabedinmiah , https://dev.to/azaynul10 . With the support of Pytorch I will create a study group where everyone once in a week will create a video content on pytorch content and in the end of month of quarter he/she will be rewarded if they have highest video contents like I did as a Microsoft Student Trainer I trained couple of developers, students on Microsoft certification and at the end of the month microsoft rewarded 15 study group participants of mine with exam vouchers and they gave exams and passed those like AI-900 and AZ-900 under my guidance and support. I will also foster an inclusive, Welcoming and diverse community like I did during organing KCD Chattogram by CNCF with 62.5% female speaker ratio and was also featured on Microsoft Commuity Blog on Internation Womens day 2025 as the best Male Ally nominated by women themselves: https://www.linkedin.com/posts/oputaolivia_iwd2025-womenintech-microsoftlearn-activity-7313591011266519040-Sq92?utm_source=share&amp;utm_medium=member_desktop&amp;rcm=ACoAACJvR6sBLMfFJjZ96ahnmku97wrMGgU6eIM . I will also organize Pytorch hackathons and model showcase encouraging students to build real world AI solutions. Invite industry experts and researchers (as I am currently working with PHD researchers such as Dr. Aniqua Zereen maam) for guest talks and Q&amp;A sessions, bridging global PyTorch advancements with local developer needs. I will also collect feedback from the students and share them with the Pytorch core team  focusing on the needs of researchers working on audio, multimodal, and low-resource language models. Also we can host a multi-week series guiding participants from basic waveform processing to deploying CNN14/AST models for real-world sound event detection.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+As the Gitkraken Ambassador, only AWS cloud club captain, Microsoft Learn Gold Student Ambassador and Co-organizer of Machine Learning, AI, NLP and Deep Learing Community Bangladesh (previously TensorFlow User Group Bangladesh part of Google AI Community), Azure Tech Group Bangladesh, Fabric User Community Bangladesh, The AI, ML Community(part of Global AI Community)  When I started community work I saw so many students get enthusiasm when I share them the oppotunities I got from program but many students are not wiling to work for it due to their academics pressure.  So I was the only person here who had to step up and don't give up on this community building process and I did that and grew over 50,000 members on different facebook tech communities sharing opporunities and growth to them: https://www.facebook.com/azaynul123/ When I joined the Google AI community group TensorFlow User Group Bangladesh as organizer there weren't so much activity but after joining this community we were able to win grandmaster award 2 times and it was first time for Bangladeshi community to have taken 92+ events in a single year. We also organized ML Olympiad 2023, 2024 , Keras Community Day 2023 physically in Brac University, 3 of our community members also won global awards from google for taking highest events: https://www.linkedin.com/posts/zaynul-abedin-miah_vertexai-google-machinelearning-activity-7292131729782280192-8rRc?utm_source=share&amp;utm_medium=member_desktop&amp;rcm=ACoAACJvR6sBLMfFJjZ96ahnmku97wrMGgU6eIM . I was the only person in Bangladesh got featured 4 times by Google: June: https://lnkd.in/g6W5FVJv ,
+April: https://lnkd.in/gB5bb5_U , https://medium.com/google-developer-experts/nov-ml-community-highlights-and-achievements-03a78e9e1449 , https://l.facebook.com/l.php?u=https%3A%2F%2Fmedium.com%2Fgoogle-developer-experts%2Fjan-2025-ai-community-activity-highlights-and-achievements-64c233e7a194%3Ffbclid%3DIwZXh0bgNhZW0CMTAAYnJpZBExSjUyMW5OeE52aFpCZWhpMwEeOTIFl3kfYUpdtQbeQou2cvfvk3gWS8j0Q9syVJRJdHbNp5BbpZSqJOHKgyI_aem_X-KMnGxlHezy-gn4kZSapg&amp;h=AT0upLN1j_59jKo21WNSAOL0rD8O2LNT71a5O8M9Xs4w9bvKUNeiZnPcqZKAac-yDIE-LMtif4SzMKNlabDlUda2KK9KU-nTx1hANKEtV2xF0NksId2vVTnrlDmPhwUHNvfWXPo33CzFv2UU&amp;__tn__=-UK*F . Also I took ml paper reading club session recently one by myself and other with supervisor on her research paper which is titled:  Video Analytics for Activity Profiling, Fall &amp; Unstable Motion Detection and it got massive response on Facebook within 2 days it got 2.7K views and after this event many student started doing research work under her supervision: https://youtube.com/playlist?list=PLHGDyeOCXVQfDHoouVp7YF_LEbdjh8JGz&amp;si=A7xqiG55myR6HjIE ,  https://www.facebook.com/bdaiml . Contributed to kubernetes and got over 30+ PR approved, member of kubernetes org and kubernetes sigs. Got Dan Kohn Scholarship by Linux Foundation for Kubecon India 2024: https://www.linkedin.com/posts/zaynul-abedin-miah_opensource-kubernetescommunity-techjourney-activity-7261637965020307458-GGZz?utm_source=share&amp;utm_medium=member_desktop&amp;rcm=ACoAACJvR6sBLMfFJjZ96ahnmku97wrMGgU6eIM .</t>
         </is>
       </c>
       <c r="E272" s="2" t="inlineStr"/>
@@ -6109,28 +6224,30 @@
       <c r="I298" t="inlineStr"/>
     </row>
     <row r="299">
-      <c r="A299" s="2" t="inlineStr">
-        <is>
-          <t>246</t>
-        </is>
+      <c r="A299" s="2" t="n">
+        <v>248</v>
       </c>
       <c r="B299" s="2" t="inlineStr">
         <is>
-          <t>Fady</t>
+          <t>Aditya</t>
         </is>
       </c>
       <c r="C299" s="2" t="inlineStr">
         <is>
-          <t>Nabil</t>
+          <t>Kumar</t>
         </is>
       </c>
       <c r="D299" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Writting blog post, engaging on social media, promoting pytorch in my organisation
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E299" s="2" t="inlineStr"/>
@@ -6620,28 +6737,33 @@
       <c r="I325" t="inlineStr"/>
     </row>
     <row r="326">
-      <c r="A326" s="2" t="inlineStr">
-        <is>
-          <t>242</t>
-        </is>
+      <c r="A326" s="2" t="n">
+        <v>244</v>
       </c>
       <c r="B326" s="2" t="inlineStr">
         <is>
-          <t>Soran</t>
+          <t>Abdulhayyu</t>
         </is>
       </c>
       <c r="C326" s="2" t="inlineStr">
         <is>
-          <t>Ghaderi</t>
+          <t>Abubakar</t>
         </is>
       </c>
       <c r="D326" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Create engaging Twitter threads and reels
+Run community challenges or campaigns
+Host or co-host Spaces for awareness
+Tap into my network of Web3 communities for partnerships and collaborations
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+No</t>
         </is>
       </c>
       <c r="E326" s="2" t="inlineStr"/>
@@ -7131,28 +7253,33 @@
       <c r="I352" t="inlineStr"/>
     </row>
     <row r="353">
-      <c r="A353" s="2" t="inlineStr">
-        <is>
-          <t>238</t>
-        </is>
+      <c r="A353" s="2" t="n">
+        <v>240</v>
       </c>
       <c r="B353" s="2" t="inlineStr">
         <is>
-          <t>Wachiou</t>
+          <t>Norman</t>
         </is>
       </c>
       <c r="C353" s="2" t="inlineStr">
         <is>
-          <t>BOURAIMA</t>
+          <t>Lam</t>
         </is>
       </c>
       <c r="D353" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As an ambassador, I would actively engage with the PyTorch community by creating welcoming spaces both online and offline for users of all levels. I plan to organize regular workshops and meetups—both virtual and in-person—where community members can collaborate, share experiences, and learn about the latest developments in PyTorch. These events would include hands-on coding sessions, guest speakers from industry and academia, and open Q&amp;A forums to address members' challenges.
+Mentoring is a key aspect of my vision. I intend to launch a mentorship program that pairs experienced users with newcomers, providing guidance on both technical topics and career development. I will also be available on community channels (such as forums, Discord, and GitHub) to answer questions and support open-source contributions, encouraging more users to get involved.
+For knowledge-sharing, I plan to write detailed tutorials, host webinars, and contribute to the PyTorch documentation. By highlighting community projects and success stories, I hope to inspire others and showcase the diverse ways PyTorch can be used.
+Ultimately, my goal is to foster an inclusive, supportive, and innovative community where knowledge is freely exchanged and everyone feels empowered to contribute.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E353" s="2" t="inlineStr"/>
@@ -7642,28 +7769,41 @@
       <c r="I379" t="inlineStr"/>
     </row>
     <row r="380">
-      <c r="A380" s="2" t="inlineStr">
-        <is>
-          <t>232</t>
-        </is>
+      <c r="A380" s="2" t="n">
+        <v>238</v>
       </c>
       <c r="B380" s="2" t="inlineStr">
         <is>
-          <t>Najib</t>
+          <t>Wachiou</t>
         </is>
       </c>
       <c r="C380" s="2" t="inlineStr">
         <is>
-          <t>Chowdhury</t>
+          <t>BOURAIMA</t>
         </is>
       </c>
       <c r="D380" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador, I would actively promote the use and understanding of PyTorch within both Francophone and Anglophone African communities, especially in West Africa. I am the co-founder and current president of Python Togo and have organized several major events such as PyCon Africa and the upcoming PyCon Togo 2025, the first ever PyCon in Togo.
+I also participated in the Google Summer of Code under the Python Software Foundation, working on a project related to FURY and DIPY, which gave me strong hands-on experience in scientific and machine learning tools.
+My contributions as an ambassador would include:
+    - Organizing local workshops, webinars, and hackathons focused on PyTorch;
+    - Creating beginner-friendly content and tutorials in both English and French to make PyTorch more accessible;
+    - Mentoring students and developers interested in AI/ML, helping them get started with PyTorch in real-world projects;
+    - Collaborating with universities and developer communities to integrate PyTorch into learning programs;
+    - Giving feedback from the field to help improve PyTorch's documentation and outreach strategy.
+I’m deeply committed to empowering African tech talent and believe that PyTorch can play a vital role in democratizing machine learning on the continent.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+In addition to my community leadership roles, I’m also a strong advocate for open-source and inclusive tech education. I currently mentor young developers through several initiatives, including the Tublian open source internship and local learning circles focused on backend and AI development.
+I am also a Microsoft Learn Student Ambassador and regularly speak at tech events about the impact of AI and open technologies in education, health, and entrepreneurship. Recently, I launched a webinar series called Tech Lives Series, where I invite professionals from diverse fields to discuss how technology, including AI shapes their work.
+Being based in Togo, I understand the challenges and opportunities of tech adoption in underrepresented regions. I want to bridge the gap between global tools like PyTorch and the local developer ecosystem, making cutting-edge AI education more inclusive and practical.
+I see this ambassadorship as a way not only to promote PyTorch, but to empower more African voices in the AI space.</t>
         </is>
       </c>
       <c r="E380" s="2" t="inlineStr"/>
@@ -8153,28 +8293,36 @@
       <c r="I406" t="inlineStr"/>
     </row>
     <row r="407">
-      <c r="A407" s="2" t="inlineStr">
-        <is>
-          <t>225</t>
-        </is>
+      <c r="A407" s="2" t="n">
+        <v>230</v>
       </c>
       <c r="B407" s="2" t="inlineStr">
         <is>
-          <t>Hyogeun</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C407" s="2" t="inlineStr">
         <is>
-          <t>Oh</t>
+          <t>Winner</t>
         </is>
       </c>
       <c r="D407" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As an ambassador, I'd contribute by actively engaging with the PyTorch community through:
+1. Knowledge-sharing: Sharing expertise via blog posts, tutorials, and workshops.
+2. Community support: Helping newcomers, answering questions, and providing guidance.
+3. Event hosting: Organizing meetups, webinars, and conferences to foster collaboration.
+4. Mentoring: Guiding individuals in PyTorch projects and research.
+5. Feedback loop: Collecting community feedback to improve PyTorch and advocate for user needs.
+My goal would be to build a stronger, more inclusive community, drive adoption, and contribute to PyTorch's growth and innovation.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E407" s="2" t="inlineStr"/>
@@ -8664,28 +8812,30 @@
       <c r="I433" t="inlineStr"/>
     </row>
     <row r="434">
-      <c r="A434" s="2" t="inlineStr">
-        <is>
-          <t>223</t>
-        </is>
+      <c r="A434" s="2" t="n">
+        <v>229</v>
       </c>
       <c r="B434" s="2" t="inlineStr">
         <is>
-          <t>Alireza</t>
+          <t>Talib</t>
         </is>
       </c>
       <c r="C434" s="2" t="inlineStr">
         <is>
-          <t>Hosseini</t>
+          <t>Sayyed</t>
         </is>
       </c>
       <c r="D434" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I have huge audiance and connections over here in Pune, Maharashtra, India and Im Highly in attending and organising events and I love to teach others and interact with others and I was looking for this opportunity and here I got it... I am sure that I the best fit for this opportunity due to my interests and connections and I have all the capabilities to organise community events and currently I'm the head of Generative AI Pune Community 375+ Members.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+And yeah you can check my LinkedIn profile to know more about my capabilities and I would organize events also be one of the speaker for my community events and here's my LinkedIn profile https://www.linkedin.com/in/talibs</t>
         </is>
       </c>
       <c r="E434" s="2" t="inlineStr"/>
@@ -9175,28 +9325,49 @@
       <c r="I460" t="inlineStr"/>
     </row>
     <row r="461">
-      <c r="A461" s="2" t="inlineStr">
-        <is>
-          <t>222</t>
-        </is>
+      <c r="A461" s="2" t="n">
+        <v>226</v>
       </c>
       <c r="B461" s="2" t="inlineStr">
         <is>
-          <t>Shrutakeerti</t>
+          <t>Ying-Jung</t>
         </is>
       </c>
       <c r="C461" s="2" t="inlineStr">
         <is>
-          <t>Datta</t>
+          <t>Chen</t>
         </is>
       </c>
       <c r="D461" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Ying-Jung Chen would be an exceptional PyTorch Ambassador due to her deep expertise in LLMs, multi-agent systems, and scalable ML infrastructure, combined with her strong track record of open-source contributions and public engagement.
+She is a seasoned AI Software Engineer with over 5 years of hands-on experience using PyTorch to develop and deploy production-ready AI systems in healthcare, climate science, and government sectors. Notably, she has led multi-agent LLM deployments and CUDA-accelerated model pipelines, highlighting her proficiency in both research-grade experimentation and real-world applications. Her work at the US Forest Service and Descartes Labs demonstrates how she leverages PyTorch in mission-critical settings—from wildfire forecasting to smart contract risk detection.
+Ying-Jung has actively contributed to the open-source community through the MLCommons AIRR and 
+CIRISAI, and she serves as a reviewer for NeurIPS workshops, ensuring scientific rigor and inclusivity. As an Ambassador, she would expand this impact by mentoring early-career researchers, hosting community events and tutorials on advanced topics such as RAG systems and distributed model training with PyTorch, and fostering collaboration across academia, national labs, and open-source projects.
+In addition, Ying-Jung has presented at conferences like SciPy and NeurIPS, and she is well-prepared to lead local meetups, contribute to PyTorch's community documentation, and create educational resources targeted at underrepresented communities. She is available immediately and committed to strengthening the ecosystem through mentorship, hands-on workshops, and collaborative innovation.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+Ying-Jung Chen is not only a highly skilled AI engineer and researcher but also a passionate educator and open-source contributor. She actively engages with the global AI community through:
+Conference Presentations:
+PyData Seattle 2023 -"Let's program to flight the impact of climate change" : https://www.youtube.com/watch?v=IU4_mTUdER8
+SciPy 2024 – “Employing the Strengths of Generative AI in Time Series Forecasting”
+NeurIPS 2024 Workshop – “Stubble Burning Detection with Geospatial Foundation Models”
+NeurIPS 2023–2025 – Serving as a reviewer for the Climate Change AI (CCAI) workshop
+Publications:
+arXiv 2025: “Reinforcing Clinical Decision Support through Multi-Agent Systems and Ethical AI Governance”
+Journal of Information Security 2025: “Information Security, Ethics, and Integrity in LLM Agent Interaction”
+arXiv 2024: “Science Time Series: Deep Learning in Hydrology”
+Open Source Contributions:
+Contributed to CIRISAI: https://github.com/CIRISAI
+Member of the MLCommons AIRR working group and AI Security group
+Github: https://github.com/hydrogeohc
+LinkedIn: https://www.linkedin.com/in/yj-elizabeth-chen
+She is deeply committed to democratizing AI knowledge, with plans to launch a PyTorch-powered tutorial series for climate and geospatial AI, and to organize interdisciplinary workshops that bridge environmental science, public safety, and deep learning communities.</t>
         </is>
       </c>
       <c r="E461" s="2" t="inlineStr"/>
@@ -9686,28 +9857,37 @@
       <c r="I487" t="inlineStr"/>
     </row>
     <row r="488">
-      <c r="A488" s="2" t="inlineStr">
-        <is>
-          <t>218</t>
-        </is>
+      <c r="A488" s="2" t="n">
+        <v>221</v>
       </c>
       <c r="B488" s="2" t="inlineStr">
         <is>
-          <t>Asif</t>
-        </is>
-      </c>
-      <c r="C488" s="2" t="inlineStr">
-        <is>
-          <t>Ameer</t>
-        </is>
-      </c>
+          <t>Sangofweb3</t>
+        </is>
+      </c>
+      <c r="C488" s="2" t="inlineStr"/>
       <c r="D488" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+The nominee plans to actively engage with the PyTorch community through a hands-on, inclusive, and collaborative approach.
+Knowledge Sharing &amp; Mentorship
+The nominee will:
+Create educational content (e.g., tutorials, notebooks, blog posts, and short-form videos) 
+Mentor newcomers through guided learning paths, code reviews, and direct Q&amp;A sessions in telegram  communities and Discord groups
+Host regular office hours or “Ask Me Anything” (AMA) sessions to support users facing real-world challenges with PyTorch
+Organize local PyTorch meetups and workshops, especially in underrepresented regions, to make advanced AI tools more accessible.
+Host virtual events, includinghackathons, PyTorch sprints, and collaborative building sessions to drive contributions to PyTorch and related ecosystems.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+https://x.com/sangofweb3
+https://t.me/Sangofweb3
+https://github.com/ikpangesang
+https://x.com/sangofweb3/status/1922754627327365217?s=46
+https://x.com/sangofweb3/status/1920560547562430527?s=46</t>
         </is>
       </c>
       <c r="E488" s="2" t="inlineStr"/>
@@ -10197,28 +10377,39 @@
       <c r="I514" t="inlineStr"/>
     </row>
     <row r="515">
-      <c r="A515" s="2" t="inlineStr">
-        <is>
-          <t>215</t>
-        </is>
+      <c r="A515" s="2" t="n">
+        <v>219</v>
       </c>
       <c r="B515" s="2" t="inlineStr">
         <is>
-          <t>Varala</t>
+          <t>Derbew</t>
         </is>
       </c>
       <c r="C515" s="2" t="inlineStr">
         <is>
-          <t>Swapnik</t>
+          <t>Felasman</t>
         </is>
       </c>
       <c r="D515" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+nan
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+As a PyTorch Ambassador, I would actively promote the adoption and effective use of PyTorch within my academic, professional, and online communities. Drawing from my background as a university lecturer and content creator, I would contribute in the following ways:
+	1.	Community Education and Engagement
+I plan to organize regular workshops, webinars, and hands-on labs on PyTorch fundamentals, deep learning, and generative AI applications. These events will be tailored for students, researchers, and developers, especially in underrepresented regions like East Africa, to help them build practical skills using PyTorch.
+	2.	Content Creation and Localization
+I will create high-quality educational content—tutorials, videos, blog posts, and code walkthroughs—focusing on real-world use cases of PyTorch. Where relevant, I’ll localize this content into regional languages to broaden accessibility and engagement.
+	3.	Mentorship and Collaboration
+I will mentor aspiring ML practitioners through bootcamps and open-source contribution initiatives, encouraging them to use and contribute to the PyTorch ecosystem. I’ll also foster collaborations between academia and industry by showcasing PyTorch-powered projects and research.
+	4.	Advocacy and Representation
+I will represent PyTorch at conferences, AI community meetups, and educational panels, advocating for ethical, inclusive, and impactful AI development using PyTorch. I’m committed to bridging the knowledge gap in AI education and showcasing PyTorch as a powerful and approachable framework for learners at all levels.
+By serving as a dedicated educator, content creator, and community builder, I aim to amplify PyTorch’s impact across educational and professional spheres and help nurture the next generation of machine learning practitioners.</t>
         </is>
       </c>
       <c r="E515" s="2" t="inlineStr"/>
@@ -10708,28 +10899,30 @@
       <c r="I541" t="inlineStr"/>
     </row>
     <row r="542">
-      <c r="A542" s="2" t="inlineStr">
-        <is>
-          <t>209</t>
-        </is>
+      <c r="A542" s="2" t="n">
+        <v>215</v>
       </c>
       <c r="B542" s="2" t="inlineStr">
         <is>
-          <t>Kelvin</t>
+          <t>Varala</t>
         </is>
       </c>
       <c r="C542" s="2" t="inlineStr">
         <is>
-          <t>Rotich</t>
+          <t>Swapnik</t>
         </is>
       </c>
       <c r="D542" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+nan
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E542" s="2" t="inlineStr"/>
@@ -11219,27 +11412,28 @@
       <c r="I568" t="inlineStr"/>
     </row>
     <row r="569">
-      <c r="A569" s="2" t="inlineStr">
-        <is>
-          <t>208</t>
-        </is>
+      <c r="A569" s="2" t="n">
+        <v>211</v>
       </c>
       <c r="B569" s="2" t="inlineStr">
         <is>
-          <t>Ed</t>
+          <t>Akilsurya</t>
         </is>
       </c>
       <c r="C569" s="2" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Sivakumar</t>
         </is>
       </c>
       <c r="D569" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
+nan
+        Ambassador Pitch:
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
 </t>
         </is>
       </c>
@@ -11730,28 +11924,33 @@
       <c r="I595" t="inlineStr"/>
     </row>
     <row r="596">
-      <c r="A596" s="2" t="inlineStr">
-        <is>
-          <t>205</t>
-        </is>
+      <c r="A596" s="2" t="n">
+        <v>207</v>
       </c>
       <c r="B596" s="2" t="inlineStr">
         <is>
-          <t>Koki</t>
+          <t>Tan</t>
         </is>
       </c>
       <c r="C596" s="2" t="inlineStr">
         <is>
-          <t>Mitsunami</t>
+          <t>Seng</t>
         </is>
       </c>
       <c r="D596" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+1. Organise PyTorch-centric workshops in partnership with local universities and tech communities to promote hands-on learning and community engagement.
+2. Provide 1:1 mentoring and facilitate group mentoring circles to support learners and professionals at different stages of their PyTorch journey.
+3. Publish in-depth PyTorch tutorials and regularly share the latest updates, best practices, and use cases from the PyTorch ecosystem on LinkedIn.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+1. Resume: https://drive.google.com/file/d/1B5IyT7yihffROXCQUmTPXvg7QHblq647
+2. Medium Publication: https://medium.com/@peisengtan</t>
         </is>
       </c>
       <c r="E596" s="2" t="inlineStr"/>
@@ -12241,28 +12440,30 @@
       <c r="I622" t="inlineStr"/>
     </row>
     <row r="623">
-      <c r="A623" s="2" t="inlineStr">
-        <is>
-          <t>199</t>
-        </is>
+      <c r="A623" s="2" t="n">
+        <v>203</v>
       </c>
       <c r="B623" s="2" t="inlineStr">
         <is>
-          <t>Natia</t>
+          <t>Kunal</t>
         </is>
       </c>
       <c r="C623" s="2" t="inlineStr">
         <is>
-          <t>Kukhilava</t>
+          <t>Mishra</t>
         </is>
       </c>
       <c r="D623" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Since the beginning, PyTorch has been central to my machine learning journey. It's the framework I studied, experimented with, and currently use on a daily basis as an AI/ML engineer working on real-world issues, ranging from forecasting renewable energy to developing AI tools for businesses. I've come to understand that PyTorch is more than just a tool; it's a part of a community that values cooperation, open learning, and pushing the envelope of what's feasible. I want to give back to this amazing community and assist others in growing the way PyTorch helped me, which is precisely why I want to become a PyTorch Ambassador. Assisting others in moving from inquisitiveness to self-assurance is one of my favorite things to do. Whether they are professionals making the switch to AI or students just starting out, I want to be a person they can get in touch with. It's always so satisfying to see someone get their first model working or submit their first open-source contribution, and I've mentored others in developer clubs and hackathons. I would conduct interactive workshops, host open Q&amp;A sessions, and produce beginner-friendly content as an ambassador to help simplify difficult subjects into relatable, easy-to-understand examples. Regardless of where they are coming from, I want everyone to feel like they belong here. In addition, I intend to regularly host in-person and virtual gatherings where researchers, developers, and learners can interact, collaborate, and gain knowledge from one another. These could be brief get-togethers, PyTorch study sessions, or even hackathons where the goal is to use deep learning to solve important problems. The goal is to produce a place where people can freely collaborate, ask questions, and learn together rather than just alone. The true magic, in my opinion, occurs there. Making education accessible is something I'm very passionate about. I understand how daunting this field can feel because I have been in a situation where it wasn't always easy to find the right advice or resources. In order to reach students at smaller colleges who might not have access to robust AI programs, I would like to assist with localizing PyTorch content and translating tutorials into languages like Hindi. We simply need to connect with and encourage the AI talent that is out there. Naturally, I'll also keep making contributions to open source. I've already started working on PyTorch projects that use RAG pipelines, transformers, and LSTMs. Making education accessible is something I'm really passionate about. I understand how intimidating this field can feel because I have been in a situation where it wasn't always easy to find the right resources or guidance. I want to assist with localizing PyTorch content, translating tutorials into languages like Hindi, and converting those experiences into useful codebases that others can use. I want to strengthen the ecosystem and make it more inclusive, whether that means adding documentation, example notebooks, or real model improvements. Making an impact is more important to me as a PyTorch Ambassador than titles. It's about assisting someone in writing their joy when it functions and then witnessing them accomplish incredible feats. I want to contribute to the development of that kind of community. If given the opportunity, I will support and expand the PyTorch family with all of my energy, empathy, and experience.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+I have participated in multiple hackathons and worked with PyTorch since the 2nd year of my graduation. I wrote some research papers and created a few accelerators for our partner AWS Custom Solutions. Most of my work is private, but I published most of my work on GitHub.</t>
         </is>
       </c>
       <c r="E623" s="2" t="inlineStr"/>
@@ -12752,28 +12953,57 @@
       <c r="I649" t="inlineStr"/>
     </row>
     <row r="650">
-      <c r="A650" s="2" t="inlineStr">
-        <is>
-          <t>194</t>
-        </is>
+      <c r="A650" s="2" t="n">
+        <v>196</v>
       </c>
       <c r="B650" s="2" t="inlineStr">
         <is>
-          <t>Usamah</t>
+          <t>Dominica</t>
         </is>
       </c>
       <c r="C650" s="2" t="inlineStr">
         <is>
-          <t>Zaheer</t>
+          <t>Amanfo</t>
         </is>
       </c>
       <c r="D650" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Pytorch ambassador
+As a dedicated AI professional with a passion for developer advocacy and community engagement, I am deeply committed to contributing to the growth and vibrancy of the PyTorch community. My engagement would focus on three core pillars: education, mentorship, and community-building.
+1. Knowledge Sharing &amp; Education: +Having developed and authored technical content such as the TinyML on Arm course and PyTorch with ExecuTorch for Edge AI, I plan to contribute tutorials, blog posts, and learning paths tailored for beginners and intermediate users, particularly those in underrepresented regions. These resources will cover practical applications of PyTorch for embedded AI, cloud deployment, and model optimization.
+2. Hosting Events &amp; Technical Workshops: +I will organize hands-on virtual and in-person workshops, webinars, and hackathons to introduce developers to practical use cases of PyTorch. Collaborating with local developer communities across Africa and Europe (e.g., through Arm, Hochschule Luzern, YCEM and MakersPlace), I aim to create inclusive events that lower the barrier to entry for aspiring ML engineers.
+3. Mentorship &amp; Inclusion: +As a mentor to over 30 interns at 4th-IR and co-founder of YCEM, I have a track record of nurturing talent. I intend to establish a mentorship circle within the PyTorch ecosystem that offers guidance on building careers in AI, contributes to open source, and fosters a culture of peer-to-peer support, particularly for young women in tech.
+With my experience in leading enterprise AI projects and engaging diverse developer groups, I am confident in my ability to help the PyTorch initiative thrive globally through accessible, actionable, and community-focused contributions.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+Feature/Workshop/Talks Highlights: 
+• Celebrated for being the First external female engineer to write a learning path. Read more: https://community.arm.com/arm-ambassadors/b/blog/posts/breaking-barriers-dominicas-inspiring-journey
+• Spotlighted in Arm's celebration of International Women in Engineering Day 2024. Read more: https://newsroom.arm.com/blog/international-women-in-engineering-day-2024-arm
+• Delivered a workshop, and Showcased in "Building the Future of AI on Arm at AI Expo Africa 2024.". Read more: https://newsroom.arm.com/blog/ai-expo-africa-2024
+• Arm(E³)NGAGE Arduino Cloud IoT Workshop ACity TEC, February 2024. Read more: https://tec.acity.edu.gh/2024/11/arm-e3ngage-arduino-cloud-iot-workshop-acity-tec-february-2024/
+• Celebrating International Women in  Engineering Day 2024 with Arm. Read more: https://newsroom.arm.com/blog/international-women-in-engineering-day-2024-arm
+• Arm Developer Program: Women Engineering Spotlight. Read more: https://newsroom.arm.com/blog/women-engineering-spotlight
+• YCEM AI Webinar. Read more +: https://www.ycem.org/events/past-events/exploring-the-world-of-ai
+Project Highlights: 
+• Virtual KYC Analyst (4th-IR, 2022 - present): Serves as the AI lead on an NLP-driven KYC platform; that reduces customer onboarding risk while improving compliance
+accuracy.
+• IBM WatsonX GenAI Challenge (2024): 1st Place Winner (Team of 5) for building a
+business-impacting GenAI solution. Read More:
+ https://de.newsroom.ibm.com/watsonx-GenAI-Challenge-Switzerland
+• AI Blockchain Integration for Profila: Led a team to merge AI with blockchain for ethical data monetization. Read More: https://www.profila.com/
+• Edge AI with TinyML: Designed the “TinyML on Arm with PyTorch and Executorch” course to aid global developers, especially in resource-constrained settings. Read More: https://learn.arm.com/learning-paths/embedded-and-microcontrollers/introduction-to-tinyml-on-arm/ 
+• Cardiac Arrhythmia Detection: Co-led the development of a portable ECG device with
+machine learning integrated to detect and classify 14 types of Cardiac arrhythmia,
+presented at an international research conference in Japan.</t>
         </is>
       </c>
       <c r="E650" s="2" t="inlineStr"/>
@@ -13263,10 +13493,8 @@
       <c r="I676" t="inlineStr"/>
     </row>
     <row r="677">
-      <c r="A677" s="2" t="inlineStr">
-        <is>
-          <t>191</t>
-        </is>
+      <c r="A677" s="2" t="n">
+        <v>191</v>
       </c>
       <c r="B677" s="2" t="inlineStr">
         <is>
@@ -13280,11 +13508,20 @@
       </c>
       <c r="D677" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a dedicated supporter of open-source technologies and artificial intelligence, my objective is to enhance the PyTorch community by fostering an inclusive and collaborative atmosphere for learners, researchers, and developers—particularly in underrepresented areas.
+I intend to organize regular hands-on workshops, webinars, and coding sessions that emphasize practical applications of PyTorch, covering a spectrum from beginner-friendly tutorials on tensors and autograd to more advanced subjects such as deep learning for computer vision, natural language processing, and model deployment. These events will be aimed at students, professionals, and hobbyists to promote widespread participation.
+In addition to these events, I will take an active role in mentoring aspiring machine learning enthusiasts by establishing a local PyTorch study group, promoting peer-to-peer learning, and providing guidance through online platforms and local educational institutions. Furthermore, I plan to release open-source projects, reproducible research notebooks, and blog articles that clarify intricate PyTorch concepts for the broader community.
+In my capacity as an ambassador, I will enhance PyTorch’s visibility in my region, motivate contributions to the ecosystem, and uphold the principles of knowledge-sharing, inclusivity, and innovation.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+As a final-year Software Engineering student with a growing focus on machine learning and data science, I have consistently worked on applying PyTorch in real-world projects and educational initiatives. I actively share knowledge through my GitHub repositories, including implementations of neural networks, computer vision pipelines, and data analysis projects. My GitHub: https://github.com/UzairHussain193
+In addition, I’ve contributed to community learning through tech talks, collaborative bootcamps, and peer mentoring sessions—recently co-hosting a GitHub BootCamp to help students improve their open-source contributions. I also maintain a blog where I share practical guides and insights into machine learning and AI for beginners and intermediate learners.
+I am deeply committed to democratizing access to ML knowledge, especially in underserved regions, and I believe the PyTorch Ambassador Program will amplify my ability to support learners, promote responsible AI development, and grow a vibrant local PyTorch community.</t>
         </is>
       </c>
       <c r="E677" s="2" t="inlineStr"/>
@@ -13774,28 +14011,43 @@
       <c r="I703" t="inlineStr"/>
     </row>
     <row r="704">
-      <c r="A704" s="2" t="inlineStr">
-        <is>
-          <t>183</t>
-        </is>
+      <c r="A704" s="2" t="n">
+        <v>185</v>
       </c>
       <c r="B704" s="2" t="inlineStr">
         <is>
-          <t>Dr</t>
+          <t>sakigokul</t>
         </is>
       </c>
       <c r="C704" s="2" t="inlineStr">
         <is>
-          <t>Kapoor</t>
+          <t>m</t>
         </is>
       </c>
       <c r="D704" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+1. Hosting Events:
+host events like seminars to introduce PyTorch and its usage, providing an overview of its potential applications in deep learning models commonly used in image recognition and language processing. These seminars will serve as an introduction to PyTorch for new users, showcasing its versatility in solving real-world challenges. Additionally,  organize workshops where participants can gain hands-on experience in developing software and solving problems using PyTorch. The goal will be to ensure participants can practically apply what they've learned.
+also organize hackathons, encouraging participants to solve problems and build projects using PyTorch, fostering innovation and creativity within the community. Furthermore, provide technical support to startups utilizing PyTorch in their services, offering guidance on best practices, optimization, and troubleshooting to help them enhance their projects.
+2. Mentorship for Students and Startups:
+provide mentorship support to both students and startups who are implementing PyTorch in their projects. This could involve helping students integrate PyTorch into their academic or research work, guiding them through challenges, and providing advice on how to build impactful models. For startups, advice on using PyTorch to solve specific technical problems, improve the scalability of their solutions, and enhance performance.
+3. Creating Learning Resources:
+To make PyTorch more accessible, create technical articles, tutorials, and online resources like video particularly in Tamil. These resources will help bridge the language barrier and ensure that a larger, more diverse audience can learn and implement PyTorch effectively. The tutorials will cover everything from the basics to advanced topics, and the articles will focus on real-world applications and use cases.
+4. Conducting Local Community Meetups:
+organize local community meetups to foster stronger bonds among PyTorch community members. These meetups will encourage collaboration, knowledge-sharing, and networking, allowing members to discuss their experiences and challenges with PyTorch. By strengthening the community, increase contributions to PyTorch's open-source development, ensuring that the ecosystem continues to grow and thrive.
+5. Collaborative Partnerships:
+Partnerships with colleges, cyber security and AI tool developing  firms to promote PyTorch adoption in diverse sectors. These collaborations will include offering tailored workshops for industry professionals to help them integrate PyTorch into their workflows. By working with educational institutions, facilitate PyTorch-focused curriculum integrations to introduce students to this powerful tool early on. For yber security and AI tool developing firms,  create specialized workshops that focus on leveraging PyTorch for data science, AI, and cybersecurity applications, helping these companies enhance their service offerings and capabilities
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+Founder and CTO of CyberAran-cybersecurity company, and Hacbug a cybersecurity and software training academy, with over five years of hands-on experience in software development and cybersecurity. Passionate about Machine Learning, I successfully completed my M.Sc. project on "Cardiovascular Disease Prediction using Support Vector Machine."
+I regularly deliver lectures and workshops for college students and contribute as a jury member in student hackathons and startup idea evaluation programs, fostering innovation and critical thinking among young technologists.
+My leadership journey began as a Cadet Under Officer in NCC during my undergraduate days, where I honed my skills in event organization and team leadership
+Since 2022, I have been an active organizer with Aruvi Vasagar Vattam, a vibrant community dedicated to literature and film screening. Collaborating closely with fellow organizers and team members, I help curate film screenings and engaging discussions featuring writers, poets, and directors. Additionally, I've led successful poetry competitions, actively engaging college students and promoting creative expression.</t>
         </is>
       </c>
       <c r="E704" s="2" t="inlineStr"/>
@@ -14285,10 +14537,8 @@
       <c r="I730" t="inlineStr"/>
     </row>
     <row r="731">
-      <c r="A731" s="2" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
+      <c r="A731" s="2" t="n">
+        <v>180</v>
       </c>
       <c r="B731" s="2" t="inlineStr">
         <is>
@@ -14302,11 +14552,20 @@
       </c>
       <c r="D731" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+The nominee will work closely with PyTorch foundation and leverage his existing experiences and resources to achieve the foundation’s priorities.
+The nominee is one of the earliest third-party PyTorch-related content providers, and generated and circulated many PyTorch-related news and tutorials, which made substantial impacts among AI developers in East Asia.
+1. The nominee founded the WeChat subscription account "pytorcher" in 2018, which is the second-largest WeChat subscription account that focuses on PyTorch. It currently has ~9k subscribers. Example post: https://mp.weixin.qq.com/s/_znyJ6kML-6QZDQeEvFN6w, which got ~2.6k complete views since its publishing in 2025.
+2. The nominee is the sole administrator and maintainer of many QQ groups (WeChat and QQ are the two most populous social media in East Asia), including groups that focusing on PyTorch (698847007, 657340455, 415053557) and groups that focusing on AI (935702193, 243613392, 948110103, etc.), covering ~2k AI developers in total. Amongst, the group 698847007 was the QQ group that collected the largest total amount of group entrance fee among groups that focus on PyTorch learning, before QQ removed the feature that allowed group owners to set a fee for entering a group.
+3. The nominee is the sole contributor of many PyTorch-related tutorial books and related GitHub repos, including (1) the GitHub repo https://github.com/ZhiqingXiao/pytorch-book and related book “Application of Neural Network and PyTorch”, which is the first hard-copy tutorial book on PyTorch 1; and (2) the GitHub repo https://github.com/ZhiqingXiao/rl-book and the related book, which provides the implementation of many mainstream RL algorithm based on PyTorch, and was one of the best-selling RL tutorial books in East Asia.
+4. The nominee maintains close relationship with many media and publishers, and has many successful experiences to work with them to circulate technical tutorials and news. The medium post https://medium.com/pytorch/e1381bdce0a5, written by the nominee, was the first medium post that introduced the usage of PyTorch in Chinese mainland. The nominee also provided virtual courses (example in SpringerNature Link: https://link.springer.com/video/10.1007/978-981-99-3740-0) and presentations (example in Tencent Cloud University: https://cloud.tencent.com/edu/learning/live-2060) in online learning platforms. An interview of the nominee by CSDN, one of the largest developer networks in East Asia, was viewed for 20k+ times (link: https://mp.weixin.qq.com/s/9VipbHM6JPS4uECvvOhjBQ).
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E731" s="2" t="inlineStr"/>
@@ -14796,24 +15055,55 @@
       <c r="I757" t="inlineStr"/>
     </row>
     <row r="758">
-      <c r="A758" s="2" t="inlineStr">
-        <is>
-          <t>177</t>
-        </is>
+      <c r="A758" s="2" t="n">
+        <v>173</v>
       </c>
       <c r="B758" s="2" t="inlineStr">
         <is>
-          <t>尹珉</t>
-        </is>
-      </c>
-      <c r="C758" s="2" t="inlineStr"/>
+          <t>Alpha</t>
+        </is>
+      </c>
+      <c r="C758" s="2" t="inlineStr">
+        <is>
+          <t>Coma</t>
+        </is>
+      </c>
       <c r="D758" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I'm from the FEU Tech ACM, a 500+ member Computer Science Community centered at Manila, Philippines. We regularly conduct 5~7 internal/external events per term (3 months) in-person and online. With the recent inclusion of AI in our curriculum, we currently plan to hold the following with many more soon:
+- Event: 3-day in-person Machine Learning Workshop and Hackathon with Keras and PyTorch. Proposal Link: https://docs.google.com/document/d/19mzTE82pMr9nANVleCvqX3S4548lqgl9NXzfxXtY714/edit?usp=sharing
+- Talk: Vision-Language Models and MultiModal Deep Learning with PyTorch
+- Outreach: 1-day in-person Python and PyTorch Fundamentals for ML
+Moreover, knowledge sharing sessions in Discord organized in collaboration with PyTorch and interested volunteers.
+As a student leader of over 3 years, I understand this is not a solitary endeavor. We will collaborate local and international communities like Data Engineeering Pilipinas, Gen AI Philippines, Python Philippines, DevCon, and many more. Our community has a following of 5.7k+ followers on Facebook, 600+ LinkedIn, and 70+ on YouTube and structured in different committees (external, academics, publication, etc). 
+Our primary target audience is the Filipino tech community first within Manila and then scale to other major cities. Event recordings and competitions shall be available to everyone as posted in our Facebook Page. With our organization and the Filipino community's efforts, together with PyTorch, we aim to bridge the gap between academe and industry in the ML/DL space. As a potential PyTorch student ambassador, I shall see this through.
+---
+FEU Institute of Technology: https://www.facebook.com/FEUTechOfficial
+FEU Tech ACM: https://www.facebook.com/feutechACM
+Data Engineering Pilipinas: https://www.facebook.com/groups/1225639754738756
+Gen AI Pilipinas: https://www.facebook.com/groups/1908503506266152
+Python Philippines: https://www.facebook.com/pythonph
+DevCon: https://www.facebook.com/DEVCONPH
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+Hi, All. I'm Alpha, a 3rd-year Computer Science Scholar at FEU Institute of Technology, an AI Engineer at a US-based AI startup, Deep Learning Engineer at MicroMarc Research (Thesis), an Author at FreeCodeCamp, and a GitHub Campus Expert Trainee.
+Relevant blogs:
+- Supercharge your AI Research with Google TPUs in VS Code: https://alpharomer.vercel.app/blog/supercharge-your-ai-research-with-google-tpus-in-vs-code
+Ongoing Research:
+- Augmenting Multimodal Deep Learning with Attention Mechanisms to Recognize "Sludge Videos" from Short-Form Content (Vision-Language Model)
+Some of my recent engagements with other communities in 2025:
+- Jan 7: Modern Web + AI session for 32 Virlanie Foundation for Filipino Children delegates and FEU Tech ACM members in person: https://www.facebook.com/share/16M8jmFsrq/
+- Jan 24: Guided 40 students to pass the GitHub Foundations exam in person: https://www.facebook.com/share/16SYTMY4op/
+- Feb 26: Two-hour GitHub developer workshop for 55 PUP students (GDG on Campus);  distributed 55 GitHub Education certification vouchers: https://www.facebook.com/gdg.pupmnl/posts/606631038846052
+- Mar 18: Engaged 40+ data engineering aspirants with Guide to get Microsoft Certification Voucher Discount: https://www.facebook.com/share/p/1BmCkcyQKi/
+- May 6: Presented to 600+ graduating CompEng students at PUP a talk about Advanced GitHub; distributed 100 GitHub Education certification vouchers: https://www.facebook.com/share/1cHt5QDWbP
+---
+Verify my account and contributions on LinkedIn: https://linkedin.com/in/alpharomercoma</t>
         </is>
       </c>
       <c r="E758" s="2" t="inlineStr"/>
@@ -15303,28 +15593,37 @@
       <c r="I784" t="inlineStr"/>
     </row>
     <row r="785">
-      <c r="A785" s="2" t="inlineStr">
-        <is>
-          <t>173</t>
-        </is>
+      <c r="A785" s="2" t="n">
+        <v>167</v>
       </c>
       <c r="B785" s="2" t="inlineStr">
         <is>
-          <t>Alpha</t>
+          <t>Yoshitomo</t>
         </is>
       </c>
       <c r="C785" s="2" t="inlineStr">
         <is>
-          <t>Coma</t>
+          <t>Matsubara</t>
         </is>
       </c>
       <c r="D785" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador, I would help students, engineers, and researchers in academia/industry in the following manners (but not limited to):
+- share knowledge about launching new PyTorch-based Python packages (CI/CD, PyPI, documentation, etc)
+- organize local (USA, Japan) / virtual events for encouraging the engineering and research communities to open-source and design reproducible projects
+- mentor those who want to start such projects themselves
+- offer tutorials about coding-free PyTorch-based frameworks for reproducible deep learning experiments
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+I am a research scientist with strong passion of open source/science. [Most of my papers](https://yoshitomo-matsubara.net/publications/) are published with [code](https://github.com/yoshitomo-matsubara) and/or [artifacts](https://huggingface.co/yoshitomo-matsubara) for reproducibility and helping research communities build on my work.
+I am also an ML OSS developer (nights and weekends), actively developing pip-installable PyTorch frameworks, [torchdistill](https://github.com/yoshitomo-matsubara/torchdistill) and [sc2bench](https://github.com/yoshitomo-matsubara/sc2-benchmark), as the author for several years. torchdistill joined PyTorch Ecosystem in 2023 ([PyTorch Community Blog](https://pytorch.org/blog/enhancing-deep-learning/), [PyTorch Medium](https://medium.com/pytorch/torchdistill-a-modular-configuration-driven-framework-for-reproducible-deep-learning-and-9e0ecabf2815)).
+For the two PyTorch frameworks, I opened the discussion pages ([torchdistill](https://github.com/yoshitomo-matsubara/torchdistill/discussions) and [sc2bench](https://github.com/yoshitomo-matsubara/sc2-benchmark/discussions)) a few years ago and I actively help users there. Before that, I contributed to discussions and Q&amp;A at [pytorch/vision](https://github.com/pytorch/vision/issues?q=yoshitomo-matsubara) and [PyTorch Forums](https://discuss.pytorch.org/u/yoshitomo-matsubara/summary).
+I also gave [OSS talks](https://yoshitomo-matsubara.net/projects/oss/) at research workshops a few times.</t>
         </is>
       </c>
       <c r="E785" s="2" t="inlineStr"/>
@@ -15814,28 +16113,33 @@
       <c r="I811" t="inlineStr"/>
     </row>
     <row r="812">
-      <c r="A812" s="2" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
+      <c r="A812" s="2" t="n">
+        <v>166</v>
       </c>
       <c r="B812" s="2" t="inlineStr">
         <is>
-          <t>Sanjoy</t>
+          <t>Chris</t>
         </is>
       </c>
       <c r="C812" s="2" t="inlineStr">
         <is>
-          <t>Kumar</t>
+          <t>Kid</t>
         </is>
       </c>
       <c r="D812" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Write Educational Content such as blogs, tutorials, and Jupyter notebooks that break down complex PyTorch concepts into accessible formats, especially focused on real-world applications like computer vision, NLP, and time series forecasting.
+Organize Local Meetups and Online Workshops, bringing together PyTorch users and contributors to share insights, demo projects, and discuss new features.
+Host Hackathons and Challenges focused on solving practical AI/ML problems using PyTorch, in partnership with universities, research labs, or tech companies.
+Collaborate with Other AI Communities to cross-pollinate ideas, tools, and workflows, encouraging a broader ecosystem connection.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E812" s="2" t="inlineStr"/>
@@ -16325,28 +16629,32 @@
       <c r="I838" t="inlineStr"/>
     </row>
     <row r="839">
-      <c r="A839" s="2" t="inlineStr">
-        <is>
-          <t>166</t>
-        </is>
+      <c r="A839" s="2" t="n">
+        <v>163</v>
       </c>
       <c r="B839" s="2" t="inlineStr">
         <is>
-          <t>Chris</t>
+          <t>Mohamed</t>
         </is>
       </c>
       <c r="C839" s="2" t="inlineStr">
         <is>
-          <t>Kid</t>
+          <t>Nazif</t>
         </is>
       </c>
       <c r="D839" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador, I would actively contribute to building an inclusive and thriving community by sharing my knowledge through workshops, webinars, and meetups focused on deep learning, model deployment, and real-world applications using PyTorch. I plan to organize regular hands-on events that help both beginners and intermediate learners gain practical experience with PyTorch.
+I also aim to launch a mentorship initiative to support newcomers in navigating their first PyTorch projects—guiding them through model building, environment setup, and contributing to open-source projects. Additionally, I will create and share educational content such as blog posts, tutorials, and video walkthroughs tailored for different learning levels.
+I’m passionate about bridging the gap between theory and practice. To that end, I plan to collaborate with universities and local tech communities to bring PyTorch into classrooms and grassroots initiatives. I will also actively engage in feedback loops with the PyTorch team and fellow ambassadors to help improve the framework and grow the global community.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E839" s="2" t="inlineStr"/>
@@ -16836,28 +17144,38 @@
       <c r="I865" t="inlineStr"/>
     </row>
     <row r="866">
-      <c r="A866" s="2" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
+      <c r="A866" s="2" t="n">
+        <v>159</v>
       </c>
       <c r="B866" s="2" t="inlineStr">
         <is>
-          <t>Ephraim</t>
+          <t>Jieke</t>
         </is>
       </c>
       <c r="C866" s="2" t="inlineStr">
         <is>
-          <t>Mwereza</t>
+          <t>Choo</t>
         </is>
       </c>
       <c r="D866" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador and EdgeX TSC member, I will bridge edge computing and PyTorch to drive innovation, inclusivity, and global collaboration in the PyTorch ecosystem. My contributions will include:
+Ecosystem Integration: Leading the ‘PyTorch Edge’ initiative within EdgeX, I’ll deliver turnkey solutions for model deployment on XPU/Jetson, building on my smart factory case that achieved 50% latency reduction. I’ll contribute 10+ patches to PyTorch’s edge libraries, enhancing deployment capabilities.
+Industry Standards: Collaborating with Intel and NVIDIA, I’ll define best practices for quantized models on edge devices, documented in PyTorch’s official guides, to standardize edge AI workflows.
+Community Growth: Leveraging my EdgeX governance experience, I’ll grow PyTorch’s edge developer base 10x through 5 regional Special Interest Groups (SIGs) and quarterly hackathons focused on low-power device optimization. To foster inclusivity, I’ll mentor 50+ new developers from underrepresented regions via monthly office hours and a university partnership program, onboarding 100+ contributors in my first year.
+Knowledge-Sharing: I’ll produce a monthly blog series on edge AI optimization, targeting 10,000+ readers annually, and host webinars to demystify model quantization for beginners. At global conferences like Embedded World, I’ll deliver PyTorch workshops, showcasing edge AI use cases and fostering cross-border collaboration.
+Global Impact: By partnering with academic institutions in Asia, Europe, and Africa, I’ll establish PyTorch-focused research groups, driving innovation and adoption. My goal is to train 500+ developers and position PyTorch as the leading framework for edge AI, akin to TensorFlow Lite, aligning with the foundation’s mission to advance AI research and industry applications.
+I am fully committed to a year-long ambassadorship, adhering to PyTorch’s behavior and antitrust policies, and am excited to build a vibrant, inclusive, and innovative global PyTorch community.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+GitHub: https://github.com/jiekechoo
+Blog: https://yiqisoft.cn/blogs/
+EdgeX Foundry TSC: https://lf-edgexfoundry.atlassian.net/wiki/spaces/FA/pages/11667441/Technical+Steering+Committee+TSC</t>
         </is>
       </c>
       <c r="E866" s="2" t="inlineStr"/>
@@ -17347,28 +17665,33 @@
       <c r="I892" t="inlineStr"/>
     </row>
     <row r="893">
-      <c r="A893" s="2" t="inlineStr">
-        <is>
-          <t>159</t>
-        </is>
+      <c r="A893" s="2" t="n">
+        <v>155</v>
       </c>
       <c r="B893" s="2" t="inlineStr">
         <is>
-          <t>Jieke</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="C893" s="2" t="inlineStr">
         <is>
-          <t>Choo</t>
+          <t>Ribeiro</t>
         </is>
       </c>
       <c r="D893" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+The nominee is a Professor in the Graduate Program in Industrial and Systems Engineering at the Pontifical Catholic University of Paraná, Brazil.
+His research involves the use of PyTorch to develop and explore artificial neural networks applied to real-world industrial problems.
+As part of his efforts to disseminate PyTorch, he created a graduate-level course titled Artificial Neural Networks Engineering, which focuses on practical implementations using PyTorch. This course is one of the few comprehensive educational resources on neural networks available entirely in Portuguese: github.com/vhrique/anne_ptbr.
+He is committed to continuing this work by developing additional educational materials and tutorials in Portuguese, aiming to make PyTorch more accessible to the broader Portuguese-speaking community
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E893" s="2" t="inlineStr"/>
@@ -17858,28 +18181,33 @@
       <c r="I919" t="inlineStr"/>
     </row>
     <row r="920">
-      <c r="A920" s="2" t="inlineStr">
-        <is>
-          <t>154</t>
-        </is>
+      <c r="A920" s="2" t="n">
+        <v>152</v>
       </c>
       <c r="B920" s="2" t="inlineStr">
         <is>
-          <t>Alejandro</t>
+          <t>Zesheng</t>
         </is>
       </c>
       <c r="C920" s="2" t="inlineStr">
         <is>
-          <t>Ferrer</t>
+          <t>Zong</t>
         </is>
       </c>
       <c r="D920" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+- Manage four PyTorch social media platforms in China, helping Chinese users more easily access official technical blogs and news.
+- Maintain the Chinese version of the PyTorch website and tutorials.
+- Lead the out-of-tree accelerator exploratory group to support diverse AI training hardware within the PyTorch community, fostering a vibrant and scalable PyTorch hardware ecosystem.
+- Actively contribute to PyTorch, having resolved over 50 issues in the past four months.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E920" s="2" t="inlineStr"/>
@@ -18369,28 +18697,31 @@
       <c r="I946" t="inlineStr"/>
     </row>
     <row r="947">
-      <c r="A947" s="2" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
+      <c r="A947" s="2" t="n">
+        <v>149</v>
       </c>
       <c r="B947" s="2" t="inlineStr">
         <is>
-          <t>Zesheng</t>
+          <t>TALMEEZ</t>
         </is>
       </c>
       <c r="C947" s="2" t="inlineStr">
         <is>
-          <t>Zong</t>
+          <t>FUAAD</t>
         </is>
       </c>
       <c r="D947" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I am in a region where technology and academics are less fortunate, I'll try to collaborate with other universities to make larger events maybe once but that should be impactful, after this I can surely say that our community can be benefited.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+https://www.linkedin.com/in/itstalmeez/
+https://www.linkedin.com/posts/itstalmeez_artificialintelligence-ai-aiapplications-activity-7092133370935017472-Y86M?utm_source=share&amp;utm_medium=member_desktop&amp;rcm=ACoAADUaEY8BkbtPX0R1H_IlEMZhGQhTZ9P98wA</t>
         </is>
       </c>
       <c r="E947" s="2" t="inlineStr"/>
@@ -18880,28 +19211,35 @@
       <c r="I973" t="inlineStr"/>
     </row>
     <row r="974">
-      <c r="A974" s="2" t="inlineStr">
-        <is>
-          <t>148</t>
-        </is>
+      <c r="A974" s="2" t="n">
+        <v>145</v>
       </c>
       <c r="B974" s="2" t="inlineStr">
         <is>
-          <t>Dr.</t>
+          <t>Ezekiel</t>
         </is>
       </c>
       <c r="C974" s="2" t="inlineStr">
         <is>
-          <t>Rahevar</t>
+          <t>Mathias</t>
         </is>
       </c>
       <c r="D974" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I will actively promote the project, engage the community, and share valuable feedback. With strong communication skills and a passion for the mission, I’ll help grow awareness, support new members, and represent the project with integrity and enthusiasm.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+Twitter: https://x.com/Mathias_don001?t=-dWdvWodA1HUeinfraDsXw&amp;s=09
+Telegram: t.me/Mathias_XP
+Medium: https://medium.com/@ezekielmathias500
+YouTube: https://youtube.com/@ezekielmathias-dk3li?si=2Vr2bj1yYGA-QJMY
+LinkedIn: https://www.linkedin.com/in/ezekiel-mathias-010555310?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app
+Previous work: https://docs.google.com/document/d/1ekW2heJ4oP2Y8MlsZY9Yq1xCU03fJKomQLIzIYSPNxI/edit?usp=drivesdk</t>
         </is>
       </c>
       <c r="E974" s="2" t="inlineStr"/>
@@ -19391,28 +19729,34 @@
       <c r="I1000" t="inlineStr"/>
     </row>
     <row r="1001">
-      <c r="A1001" s="2" t="inlineStr">
-        <is>
-          <t>144</t>
-        </is>
+      <c r="A1001" s="2" t="n">
+        <v>142</v>
       </c>
       <c r="B1001" s="2" t="inlineStr">
         <is>
-          <t>Bassey</t>
+          <t>Grace</t>
         </is>
       </c>
       <c r="C1001" s="2" t="inlineStr">
         <is>
-          <t>Ene</t>
+          <t>Gong</t>
         </is>
       </c>
       <c r="D1001" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I plan to create an accessible entry point for newcomers by developing a "PyTorch Fundamentals" video that breaks down complex concepts into digestible tutorials. 
+I am partnered with several developer communities and can deliver workshops in person and online on PyTorch and building various projects. 
+I will contribute detailed technical blog posts exploring PyTorch best practices, optimization techniques, and real-world applications, publishing these on both personal platforms and community forums.
+I'll also develop and open-source practical project templates that showcase PyTorch's capabilities across various domains including computer vision, NLP, and reinforcement learning.
+Mentorship Initiatives
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+graceg.co for more info!</t>
         </is>
       </c>
       <c r="E1001" s="2" t="inlineStr"/>
@@ -19902,28 +20246,33 @@
       <c r="I1027" t="inlineStr"/>
     </row>
     <row r="1028">
-      <c r="A1028" s="2" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
+      <c r="A1028" s="2" t="n">
+        <v>135</v>
       </c>
       <c r="B1028" s="2" t="inlineStr">
         <is>
-          <t>Grace</t>
+          <t>Sadhana</t>
         </is>
       </c>
       <c r="C1028" s="2" t="inlineStr">
         <is>
-          <t>Gong</t>
+          <t>Panthi</t>
         </is>
       </c>
       <c r="D1028" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Honestly, I’m not someone with all the answers yet, but I’ve always been that person who shows up, learns, and then pulls others in with me. I’ve been building a small but passionate community through IEEE Women In Engineering(WIE) Pulchowk, where we host workshops, share beginner-friendly resources, and just try to make tech less scary for students, especially those who feel left out. 
+I’m also a GitHub Campus Expert, and I’ve supported events like our recent INSPIRE session where speakers from Leapfrog, NVIDIA, and other top companies shared how they started from scratch. I’ve organized beginner-friendly workshops on AI/ML and taken sessions on Git and GitHub, and I truly enjoy helping others take their first step. I’ve used PyTorch in hackathons and projects like AI-based sentiment analysis and forest monitoring. But many students around me still see PyTorch and AI as too “advanced” for them.
+If selected, I want to first dive deeper into PyTorch myself with the resources and training available. Then, I’ll organize hands-on sessions, not just led by me but also by inviting friends and professionals I’ve connected with. I’ll create a space where students can learn PyTorch in a way that feels accessible and fun. Basically, I want to make people believe in their ability to learn. That’s what I care about most and I’ll keep doing that, but with PyTorch’s support, I can do it louder, better, and with more reach.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+IEEE WIE- https://www.instagram.com/ieee.wie.pul/
+Personal LinkedIn: https://www.linkedin.com/in/sadhana-panthi-746561257/</t>
         </is>
       </c>
       <c r="E1028" s="2" t="inlineStr"/>
@@ -20413,28 +20762,36 @@
       <c r="I1054" t="inlineStr"/>
     </row>
     <row r="1055">
-      <c r="A1055" s="2" t="inlineStr">
-        <is>
-          <t>138</t>
-        </is>
+      <c r="A1055" s="2" t="n">
+        <v>132</v>
       </c>
       <c r="B1055" s="2" t="inlineStr">
         <is>
-          <t>Haq</t>
+          <t>Aakash</t>
         </is>
       </c>
       <c r="C1055" s="2" t="inlineStr">
         <is>
-          <t>Malik</t>
+          <t>Rana</t>
         </is>
       </c>
       <c r="D1055" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a passionate community leader and AI enthusiast, I would contribute to the PyTorch community by actively organizing events, workshops, and hands-on sessions focused on AI, ML, and PyTorch. Currently enrolled in the Fusemachines AI Fellowship, I am deepening my technical expertise in PyTorch and plan to share this knowledge through local meetups, online sessions, and collaborative projects.
+Being selected as a top 20 Leapfrog Student Partner from over 1000 applicants highlights my ability to engage and lead communities. I am also one of the core organizers for Ubucon Asia 2025 and regularly host AI and ML workshops in Nepal. As a community speaker and trainer, I aim to introduce PyTorch to students and professionals through beginner-friendly workshops, advanced sessions, and mentorship programs, ensuring consistent engagement and growth in the local AI community.
+My vision is to build an inclusive and open learning space where people from diverse backgrounds can explore PyTorch, work on real projects, and contribute to open-source initiatives. By collaborating with existing AI communities in Nepal and international networks, I would help extend PyTorch’s reach and impact.
+I strongly align with the PyTorch Foundation’s values of openness, inclusion, and collaboration, and I believe my background in AI education, active community engagement, and hands-on technical experience makes me a perfect fit for this program.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+Along with my active involvement in the AI and tech community, I have built strong connections with Nepal’s leading tech leaders, community organizers, government officials, and university heads through my participation in various national and regional events. This network gives me a unique advantage to promote PyTorch at a wider scale — reaching universities, tech companies, and communities across Nepal.
+I believe this platform would allow me to not only organize impactful events but also collaborate with influential stakeholders to introduce PyTorch in academic curriculums, tech meetups, and national-level conferences.
+Here’s my LinkedIn for a closer look at my work and network: https://www.linkedin.com/in/aakashrana7
+I’m truly excited about the chance to serve as a PyTorch Ambassador and help grow an inclusive, knowledgeable, and active AI community in Nepal and beyond.</t>
         </is>
       </c>
       <c r="E1055" s="2" t="inlineStr"/>
@@ -20924,28 +21281,30 @@
       <c r="I1081" t="inlineStr"/>
     </row>
     <row r="1082">
-      <c r="A1082" s="2" t="inlineStr">
-        <is>
-          <t>130</t>
-        </is>
+      <c r="A1082" s="2" t="n">
+        <v>131</v>
       </c>
       <c r="B1082" s="2" t="inlineStr">
         <is>
-          <t>Ciro</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="C1082" s="2" t="inlineStr">
         <is>
-          <t>Russo</t>
+          <t>Lopez</t>
         </is>
       </c>
       <c r="D1082" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Regularly posting in Linkedin and Facebook about different use cases of Python. We have a curated group of data professionals in the Philippines for this.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1082" s="2" t="inlineStr"/>
@@ -21435,28 +21794,36 @@
       <c r="I1108" t="inlineStr"/>
     </row>
     <row r="1109">
-      <c r="A1109" s="2" t="inlineStr">
-        <is>
-          <t>128</t>
-        </is>
+      <c r="A1109" s="2" t="n">
+        <v>126</v>
       </c>
       <c r="B1109" s="2" t="inlineStr">
         <is>
-          <t>Kuyeso</t>
+          <t>Trisan</t>
         </is>
       </c>
       <c r="C1109" s="2" t="inlineStr">
         <is>
-          <t>Rogers</t>
+          <t>Wagle</t>
         </is>
       </c>
       <c r="D1109" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador, my mission would be to actively promote awareness and adoption of PyTorch within my community and beyond. I plan to:
+- Host both in-person and virtual workshops, meetups, and hands-on sessions designed to introduce PyTorch, its tools, and its practical applications in deep learning and research.
+- Engage with a community of over 200+ individuals, aiming to empower students, developers, and researchers with accessible and impactful learning opportunities.
+- Contribute to the PyTorch ecosystem by submitting bug reports, proposing feature enhancements, and improving documentation through the official GitHub repository.
+- Mentor and support newcomers in their journey toward open-source contributions, helping them navigate and contribute meaningfully to PyTorch-related projects.
+- Be an active voice in online technical communities—such as the PyTorch Forums, Reddit, Discord, and Stack Overflow—providing guidance, resolving issues, and encouraging knowledge sharing.
+- Collaborate with other PyTorch Ambassadors and core contributors to co-host events and create interactive, community-driven learning experiences.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1109" s="2" t="inlineStr"/>
@@ -21946,28 +22313,30 @@
       <c r="I1135" t="inlineStr"/>
     </row>
     <row r="1136">
-      <c r="A1136" s="2" t="inlineStr">
-        <is>
-          <t>126</t>
-        </is>
+      <c r="A1136" s="2" t="n">
+        <v>123</v>
       </c>
       <c r="B1136" s="2" t="inlineStr">
         <is>
-          <t>Trisan</t>
+          <t>Karn</t>
         </is>
       </c>
       <c r="C1136" s="2" t="inlineStr">
         <is>
-          <t>Wagle</t>
+          <t>Watcharasupat</t>
         </is>
       </c>
       <c r="D1136" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+My primary interface with PyTorch is thru its use in audio ML. There are many audio toolings in torch that remains less mature compared to vision or nlp counterparts. I hope my experience will help others navigate torch for audio ML and help with identifying any needs for new developments.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1136" s="2" t="inlineStr"/>
@@ -22457,28 +22826,33 @@
       <c r="I1162" t="inlineStr"/>
     </row>
     <row r="1163">
-      <c r="A1163" s="2" t="inlineStr">
-        <is>
-          <t>114</t>
-        </is>
+      <c r="A1163" s="2" t="n">
+        <v>119</v>
       </c>
       <c r="B1163" s="2" t="inlineStr">
         <is>
-          <t>Ibrahim</t>
+          <t>Arun</t>
         </is>
       </c>
       <c r="C1163" s="2" t="inlineStr">
         <is>
-          <t>Fadhili</t>
+          <t>Bhandari</t>
         </is>
       </c>
       <c r="D1163" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador, I'm aims to play a pivotal role in growing and strengthening the PyTorch community across Nepal and the South Asian region. With extensive experience in deep learning, community building, and technical education, I will committed to making PyTorch more accessible through a range of impactfull initiatives.
+I have plans to organize recurring PyTorch-focused events, including local meetups, hands-on workshops, and virtual seminars, targeting students, developers, and researchers. He also intends to collaborate with universities and tech hubs to integrate PyTorch into academic curricula and open machine learning clubs in partnership with student communities.
+In addition to event organizing, I will mentor aspiring practitioners through open-source contribution sprints, code reviews, and model deployment tutorials. He also plans to continue producing high-quality technical content — such as blog posts, Jupyter notebooks, and YouTube walkthroughs — focused on real-world applications of PyTorch in computer vision and NLP.
+By leveraging his growing influence as a community educator and open-source contributor, I will foster a collaborative, inclusive, and resource-rich environment where developers can learn, grow, and innovate using PyTorch. His goal is to reduce entry barriers, empower underrepresented developers, and ensure PyTorch becomes the go-to framework for the next generation of AI practitioners in the region.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1163" s="2" t="inlineStr"/>
@@ -22968,28 +23342,30 @@
       <c r="I1189" t="inlineStr"/>
     </row>
     <row r="1190">
-      <c r="A1190" s="2" t="inlineStr">
-        <is>
-          <t>113</t>
-        </is>
+      <c r="A1190" s="2" t="n">
+        <v>115</v>
       </c>
       <c r="B1190" s="2" t="inlineStr">
         <is>
-          <t>Saroj</t>
+          <t>Muhammad</t>
         </is>
       </c>
       <c r="C1190" s="2" t="inlineStr">
         <is>
-          <t>Dahal</t>
+          <t>Hamid</t>
         </is>
       </c>
       <c r="D1190" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+nan
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1190" s="2" t="inlineStr"/>
@@ -23479,27 +23855,24 @@
       <c r="I1216" t="inlineStr"/>
     </row>
     <row r="1217">
-      <c r="A1217" s="2" t="inlineStr">
-        <is>
-          <t>112</t>
-        </is>
+      <c r="A1217" s="2" t="n">
+        <v>111</v>
       </c>
       <c r="B1217" s="2" t="inlineStr">
         <is>
-          <t>Nicabed</t>
-        </is>
-      </c>
-      <c r="C1217" s="2" t="inlineStr">
-        <is>
-          <t>Gathaba</t>
-        </is>
-      </c>
+          <t>samman</t>
+        </is>
+      </c>
+      <c r="C1217" s="2" t="inlineStr"/>
       <c r="D1217" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
+nan
+        Ambassador Pitch:
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
 </t>
         </is>
       </c>
@@ -23990,24 +24363,26 @@
       <c r="I1243" t="inlineStr"/>
     </row>
     <row r="1244">
-      <c r="A1244" s="2" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
+      <c r="A1244" s="2" t="n">
+        <v>107</v>
       </c>
       <c r="B1244" s="2" t="inlineStr">
         <is>
-          <t>samman</t>
+          <t>Argo</t>
         </is>
       </c>
       <c r="C1244" s="2" t="inlineStr"/>
       <c r="D1244" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a professional in Computer Vision and Deep Learning fields I often:
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+- [linkedin](https://linkedin.com/in/argo-saakyan/)</t>
         </is>
       </c>
       <c r="E1244" s="2" t="inlineStr"/>
@@ -24497,28 +24872,40 @@
       <c r="I1270" t="inlineStr"/>
     </row>
     <row r="1271">
-      <c r="A1271" s="2" t="inlineStr">
-        <is>
-          <t>108</t>
-        </is>
+      <c r="A1271" s="2" t="n">
+        <v>105</v>
       </c>
       <c r="B1271" s="2" t="inlineStr">
         <is>
-          <t>Jayed</t>
+          <t>Harini</t>
         </is>
       </c>
       <c r="C1271" s="2" t="inlineStr">
         <is>
-          <t>Mansur</t>
+          <t>Anand</t>
         </is>
       </c>
       <c r="D1271" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+My experience spans applied machine learning, cutting-edge research, community leadership, and open-source advocacy, all of which position me to contribute meaningfully to the PyTorch Ambassador Program across its three pillars: local leadership, continuous learning, and knowledge sharing.
+I’ve actively used PyTorch in my research and professional projects from modeling gene regulatory networks at IIT Hyderabad to building cognitive tools aimed at mitigating the onset of dementia, and developing AI applications in healthcare at Niramai Health Analytix. My paper on **Financial BERT for Sentiment Analysis** was presented at the 9th International Conference for Convergence in Technology, and I’ve authored research on **Reinforcement Learning**, and **Quantum AI in Healthcare** through the IBM Quantum program. I’ve been invited by Intuit to present my research and am currently in the process of filing a patent in **multimodal machine learning**, further deepening my technical expertise with PyTorch-based workflows.
+Outside of research, I lead a **weekly AI and Data newsletter** with over 1,000 subscribers where I simplify technical topics, including PyTorch innovations. I’ve hosted **research paper reading circles** on advanced topics, including many based on PyTorch papers which I aim to expand into public workshops for the broader community. With PyTorch's growing footprint in academic and applied research, I plan to use this as a core channel for **educating developers, students, and researchers** on how to critically evaluate and apply new models.
+As a **speaker at KubeCon**, **Harvard WE Tech Fellow**, and the **youngest High Impact APAC Ambassador for Stanford’s WiDS initiative**, I’ve had opportunities to build and grow diverse communities. I led the largest technical and FOSS community at my college, regularly **hosting workshops on machine learning, NLP, and data science**, **judging hackathons**, and **mentoring juniors**. My ability to organize events from intimate research circles to large public sessions will translate directly to the Ambassador requirement of **quarterly events**, whether in-person or virtual.
+I’ve also been part of elite global communities like **KaggleX**, **GHCI**, and **MIT’s and Oxford’s AI in Healthcare summer schools**, giving me exposure to a wide international network of learners and builders. These experiences have given me playbooks for running effective community programming something I’m excited to bring to the PyTorch ecosystem. Whether it's through organizing hands-on workshops, curating speaker sessions, or promoting underrepresented voices in AI, I’m committed to building inclusive and technically robust learning spaces.
+The PyTorch Ambassador Program is a natural next step in my journey to give back to the community that has been pivotal in my own development. I’m enthusiastic about promoting PyTorch as a research and production-grade framework, helping others learn through tutorials and events, and amplifying local voices on a global stage.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+- My LinkedIn, a platform where I use my platform to voice and express my thoughts in initiatives to a following of 4k+ members - https://www.linkedin.com/in/harini-anand-2002/
+- Some talks I have given
+1. Invited by MK Cummins college to give a talk in research, internships and scholarships - https://youtu.be/GjCUmF97LsM?si=723gJT3VLcWhVoE9
+2. Workshop I held as part of my college flagship hackathon - https://www.youtube.com/live/QfcJnBBuk7k?si=ngvFouK_aV_4Jm-E
+3. Invited for a podcast to talk about my community building story - https://youtu.be/v-kxWYz_VR8?si=6y7VtEXl9wvvWrVC
+- My newsletter - https://www.linkedin.com/build-relation/newsletter-follow?entityUrn=7271142545974272000</t>
         </is>
       </c>
       <c r="E1271" s="2" t="inlineStr"/>
@@ -25008,28 +25395,47 @@
       <c r="I1297" t="inlineStr"/>
     </row>
     <row r="1298">
-      <c r="A1298" s="2" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
+      <c r="A1298" s="2" t="n">
+        <v>102</v>
       </c>
       <c r="B1298" s="2" t="inlineStr">
         <is>
-          <t>Harini</t>
+          <t>Muhammad</t>
         </is>
       </c>
       <c r="C1298" s="2" t="inlineStr">
         <is>
-          <t>Anand</t>
+          <t>Shaukat</t>
         </is>
       </c>
       <c r="D1298" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I’ve used PyTorch and love how flexible it is—helping researchers prototype quickly and letting engineers scale things up in production. As a PyTorch Ambassador, here’s what I’d do:
+Bring People Together
+Regular Meetups: Every month, I’d host in-person or virtual “PyTorch Practice” sessions. We’d pick a small project—like fine-tuning a text classifier or building a simple object detector—and work through it step by step.
+Office Hours: I’d set up weekly slots on Zoom or Discord where anyone can drop in with questions, share code for feedback, or get unstuck on a bug.
+Create Helpful Content
+Blog Posts: I enjoy writing tutorials that explain not just the “how,” but the “why.” Expect short, focused articles on things like speeding up data loading, writing custom layers, and best practices for mixed-precision training.
+Video Guides: I’d produce quick screencasts (10–15 minutes) showing real code. For example, how to switch a model from single-GPU to multi-GPU, or how to debug a tricky shape mismatch.
+Example Notebooks: I’d keep an open-source repo with clear, commented notebooks—from beginner projects (MNIST digit recognition) to intermediate ones (transformer fine-tuning).
+Mentor and Teach
+Mentorship Circles: Small cohorts (3–5 people) would pair up with me or other senior volunteers for an 8-week program. We’d meet twice a month to review progress, discuss challenges, and set goals.
+Code Clinics: Folks could submit short snippets or pull requests, and I’d give feedback on clarity, efficiency, and style. It’s amazing how much you learn from one focused code review.
+Encourage Collaboration and Growth
+Hackathons: I’d organize quarterly “PyTorch Challenges”—48-hour events with themes like “AI for Good” or “Edge AI.” It’s a fun way to spark creativity, and I’d aim to offer small prizes or mentorship opportunities to winners.
+Inclusive Outreach: I’m passionate about diversity in tech. I’d partner with local student groups and nonprofits to run free beginner workshops, ensuring everyone feels welcome and supported.
+Feedback to Core: I regularly file and triage issues on the PyTorch GitHub repo. I’d keep that up, making sure the core team hears what real users need most.
+Represent PyTorch at Events
+I love speaking about what I’ve built. You’ll find me pitching talks at PyData, local ML meetups, and online panels—sharing tips on everything from production deployment to advanced model debugging.
+Looking Forward to contribute in PyTorch community.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1298" s="2" t="inlineStr"/>
@@ -25519,28 +25925,40 @@
       <c r="I1324" t="inlineStr"/>
     </row>
     <row r="1325">
-      <c r="A1325" s="2" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
+      <c r="A1325" s="2" t="n">
+        <v>98</v>
       </c>
       <c r="B1325" s="2" t="inlineStr">
         <is>
-          <t>Ahmed</t>
+          <t>Herumb</t>
         </is>
       </c>
       <c r="C1325" s="2" t="inlineStr">
         <is>
-          <t>Mouad</t>
+          <t>Shandilya</t>
         </is>
       </c>
       <c r="D1325" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As someone who has organized cohorts on PyTorch centric usecases in Cohere for AI for 1.5 years, I've come to realize that teaching how to use something promotes projects with great potential but if you tell some how that something works you are building a community of contributors then.
+Pytorch is a great frameworks and part of the reason is that we have "enough" level of control. However, the core components that power it are usually behind the scenes and often seen as "exotic". I love to to make these  more accessible and normal to the user.
+To be more concrete, I would love to conduct project sprints and develop content that demystifies these concepts in a more grounded approach i.e. if you were to discover this thing from nowhere how would you do it? The more approachable a code-base seems the more comfortable new contributors will feel.
+Logistics wise, I can organize learning groups at Stanford too, we have a big userbase of PyTorch users here!
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+I've been writing blogs and conducting educational cohorts for ~5 years now. It was in 2020 that I along with some passionate folks started "Build With Us" Cohorts at Crework. Here we chose a small set of peers divide them into teams and helped them build real-world products rather than simple PoC projects. We had weekly reading and implementation sessions on various topics revolving around various topics but implementations centering around PyTorch.
+In 2023, I started a channel "Beginners in Research Driven Studies"(BIRDS) at Cohere for AI, along with my 2 co-leads where we helped beginners to understand the process of research. Over the period of my time there we offered 3 programs:
+1. Mini Sprints: We choose a Paper to read and in week 1. We choose a lead to run the sprint who would explain the project from first principle and explain the paper. In week 2, that person would show case the implementation of the project which would be in PyTorch. In week 3 we had a guest speaker(usually the author of the paper) and in final week we showcased implementations of people in the community.
+2. Nidification: These we one-shot sessions centering around explanation of niched concepts.
+3. Mini Cohorts: This was an 8 week event with a more zero-to-hero agenda. I'll give the example of CUDA Cohort that I lead while I was there. We started by creating a syllabus for the 8 weeks without assumptions or pre-requisites along with weekly assignments for practice. Each week, we would give a session in a lite lecture type setting explaining concepts like GPU internals, C/C++, Working of various CPU components, Parallel Programming, PyTorch Internals, CUDA C, etc. Last 2-3 weeks, we would have a capstone projects that people would make. In our first cohort we had a registration of more than 150 people and many of them had really great Ideas to work on.
+I love communities and building them, they are not just a learning opportunity but a group a people with same goal. That is a motivation in itself, talking to people smarter than me is a privilege that becomes more accessible in communities.
+Blogs: https://journal.herumbshandilya.com/, https://www.geeksforgeeks.org/user/herumbshandilya/contributions/
+Beginners in Research Driven Studies: https://sites.google.com/cohere.com/coherelabs-community/community-programs/birds</t>
         </is>
       </c>
       <c r="E1325" s="2" t="inlineStr"/>
@@ -26030,28 +26448,30 @@
       <c r="I1351" t="inlineStr"/>
     </row>
     <row r="1352">
-      <c r="A1352" s="2" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
+      <c r="A1352" s="2" t="n">
+        <v>95</v>
       </c>
       <c r="B1352" s="2" t="inlineStr">
         <is>
-          <t>Jam</t>
+          <t>Sandhya</t>
         </is>
       </c>
       <c r="C1352" s="2" t="inlineStr">
         <is>
-          <t>Villarosa</t>
+          <t>Karki</t>
         </is>
       </c>
       <c r="D1352" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch ambassador, I would leverage my experience in data science and passion for technology to inspire and engage the PyTorch community. Through my leadership roles in global tech networks, I have honed my ability to advocate for diversity and inclusion in AI, and I would bring that same dedication to promoting PyTorch. I would focus on empowering underrepresented groups in tech, organizing educational initiatives, and fostering collaboration to drive innovation within the PyTorch ecosystem. My goal would be to make PyTorch more accessible, especially to those in underserved communities, while supporting its growth as a leading deep learning framework.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1352" s="2" t="inlineStr"/>
@@ -26541,10 +26961,8 @@
       <c r="I1378" t="inlineStr"/>
     </row>
     <row r="1379">
-      <c r="A1379" s="2" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
+      <c r="A1379" s="2" t="n">
+        <v>90</v>
       </c>
       <c r="B1379" s="2" t="inlineStr">
         <is>
@@ -26558,11 +26976,29 @@
       </c>
       <c r="D1379" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador, I plan to actively engage with the community through a combination of content creation, mentoring, and event organization, especially within the Korean AI ecosystem. I will:
+  - Host regular local meetups and workshops in Korea, leveraging my existing network and reach through platforms like LinkedIn (1,200+ followers), YouTube (2,000+ subscribers), my AI newsletter (230+ subscribers), Discord, and other public channels. These events will not only include my own sessions, but also feature guest speakers from industry and academia. I will carefully select and invite presenters to share diverse PyTorch use cases across startups, research labs, and enterprise environments.
+  - Record and publish all meetup presentations to contribute to the growing body of Korean-language PyTorch educational resources. By making these talks publicly available, I aim to improve access to high-quality content for Korean learners and help broaden PyTorch’s reach beyond just in-person participants.
+  - Foster active networking and mentorship opportunities by facilitating direct interaction between speakers and attendees. Whether they are early-career researchers, engineers, or students, participants will be able to connect, ask questions, and build ongoing relationships with mentors and experts beyond myself.
+  - Continue to create educational content in Korean via my YouTube channel and newsletter, providing tutorials, deep dives, and insights into state-of-the-art PyTorch applications. This includes practical training content for both beginners and experienced users.
+  - Mentor emerging talent by sharing best practices in PyTorch-based development, and offer guidance on using PyTorch effectively for publishing scientific research — based on my experience authoring 11 SCI(E)-level papers using PyTorch.
+With my strong background in education, engineering, and community leadership, I am confident in my ability to organize impactful events, foster meaningful connections, and help the PyTorch initiative thrive in Korea and beyond.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+As an AI engineer and educator, I bring strong communication skills and a proven ability to engage the community through various channels. My strengths include:
+  - Authored 11 peer-reviewed SCI(E)-level papers using PyTorch as the primary framework for research and experimentation.(https://scholar.google.com/citations?user=qt7vHIMAAAAJ&amp;hl=ko)
+  - I applied PyTorch as the core deep learning framework during my time at prominent Korean startups like PRND and Healingpaper, leveraging it for scalable image-based ML systems, model optimization, and deployment in production-grade pipelines.
+  - Publish a weekly AI-focused newsletter at https://news.kojunseo.link, currently reaching over 230 email subscribers.
+  - Operate a YouTube channel (@kojunseo) with over 2,000 subscribers, where I regularly publish educational content on PyTorch, machine learning, and software development.
+  - Have a professional LinkedIn network of 1,200+ followers (https://www.linkedin.com/in/kojunseo).
+  - Invited speaker at leading events such as the Vessl AI Conference and Teddynote Live, one of Korea’s most prominent LLM and RAG-focused channels (https://www.youtube.com/live/hEKcdsrdV8M?si=kcOiIx1YjsCQ10Ve, https://youtu.be/iZEJBOEdMEQ).
+  - https://kojunseo.link for more information.
+I am confident in my ability to promote and organize PyTorch-related events, especially within the Korean AI community. With my existing audience and media presence, I can effectively support community growth, host local events, and attract participants to PyTorch initiatives.</t>
         </is>
       </c>
       <c r="E1379" s="2" t="inlineStr"/>
@@ -27052,28 +27488,32 @@
       <c r="I1405" t="inlineStr"/>
     </row>
     <row r="1406">
-      <c r="A1406" s="2" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
+      <c r="A1406" s="2" t="n">
+        <v>88</v>
       </c>
       <c r="B1406" s="2" t="inlineStr">
         <is>
-          <t>Muhammad</t>
+          <t>Umair</t>
         </is>
       </c>
       <c r="C1406" s="2" t="inlineStr">
         <is>
-          <t>Khan</t>
+          <t>Inayat</t>
         </is>
       </c>
       <c r="D1406" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador, I would actively contribute by fostering an inclusive and vibrant community around PyTorch through consistent knowledge-sharing, mentorship, and event organization. I plan to host hands-on workshops and meetups—both virtual and in-person—focused on real-world applications of PyTorch in research and industry. These events will range from beginner-level tutorials to advanced deep learning sessions, ensuring value for all levels of experience.
+Additionally, I will engage with the PyTorch community through content creation, such as blog posts, open-source tutorials, and YouTube walkthroughs, especially focusing on use-cases relevant to underrepresented domains or regions. I am also committed to mentoring aspiring developers and researchers by organizing office hours, Q&amp;A sessions, and project-based learning cohorts.
+By maintaining active participation in forums, social platforms, and open-source contributions, I aim to bridge the gap between cutting-edge research and practical application, helping the PyTorch initiative thrive and grow globally.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+I am also Microsoft student ambassador. https://www.google.com/url?sa=t&amp;source=web&amp;rct=j&amp;opi=89978449&amp;url=https://pk.linkedin.com/in/umairinayat&amp;ved=2ahUKEwiswMqsqJeNAxVe3QIHHcFOEFsQjjh6BAgpEAE&amp;usg=AOvVaw2oZ5PvjGWzr0MBqajsTod4</t>
         </is>
       </c>
       <c r="E1406" s="2" t="inlineStr"/>
@@ -27563,28 +28003,30 @@
       <c r="I1432" t="inlineStr"/>
     </row>
     <row r="1433">
-      <c r="A1433" s="2" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
+      <c r="A1433" s="2" t="n">
+        <v>84</v>
       </c>
       <c r="B1433" s="2" t="inlineStr">
         <is>
-          <t>Syed</t>
+          <t>Lazhar</t>
         </is>
       </c>
       <c r="C1433" s="2" t="inlineStr">
         <is>
-          <t>raza</t>
+          <t>Bouacha</t>
         </is>
       </c>
       <c r="D1433" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+My code from my papers is written every time in PyTorch.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1433" s="2" t="inlineStr"/>
@@ -28074,10 +28516,8 @@
       <c r="I1459" t="inlineStr"/>
     </row>
     <row r="1460">
-      <c r="A1460" s="2" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
+      <c r="A1460" s="2" t="n">
+        <v>81</v>
       </c>
       <c r="B1460" s="2" t="inlineStr">
         <is>
@@ -28091,11 +28531,15 @@
       </c>
       <c r="D1460" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As an active open-source contributor to dstack, I’m involved daily basis to create technical content on the use of PyTorch and PyTorch-based libraries with GPU
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+About me: https://x.com/andrey_cheptsov</t>
         </is>
       </c>
       <c r="E1460" s="2" t="inlineStr"/>
@@ -28585,28 +29029,55 @@
       <c r="I1486" t="inlineStr"/>
     </row>
     <row r="1487">
-      <c r="A1487" s="2" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
+      <c r="A1487" s="2" t="n">
+        <v>73</v>
       </c>
       <c r="B1487" s="2" t="inlineStr">
         <is>
-          <t>Satyam</t>
+          <t>Muhammad</t>
         </is>
       </c>
       <c r="C1487" s="2" t="inlineStr">
         <is>
-          <t>Kumar</t>
+          <t>Rebaal</t>
         </is>
       </c>
       <c r="D1487" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I am a Machine Learning Engineer and Software Engineer with 2+ years of industry experience. Additionally, I’m the Community Head Organizer of GDGoC-UoK (Google Developer Groups On Campus at the University of Karachi), and an open-source contributor with a strong commitment to using AI to build, educate, and scale responsible innovation. My journey has also included those impacted by opportunities enabled by community, technical contribution, and responding to real-world AI challenges.
+Community Leadership &amp; Developer Empowerment
+As the Google Developer Groups On Campus (GDGoC) Lead at the University of Karachi and a β-MLSA Microsoft Learn Student Ambassador, I'm proud to have:
+- Organized 30+ workshops, including 10+ on specific AI/ML-focused topics. I have also presented a 1-Day Bootcamp on Generative AI, and organized events at my university focusing on Leadership skills and community building.
+- Presented talks to 100+ students on PyTorch, Generative AI, cloud technologies, and deep learning.
+- Mentored beginner and intermediate learners using project-based sessions, utilizing growing AI technology.
+- As a community builder, I not only teach the students myself but also bring opportunities to people through collaboration with worldwide corporations (Folio3) and learning providers (DataCamp).
+As a PyTorch Ambassador, I will be extending this work by:
+- Hosting a monthly PyTorch bootcamp and hackathons (both virtual and in-person) 
+- Creating regional mentorship programs for students and early-career ML developers 
+- Creating open-source starter kits for the PyTorch ecosystem 
+Technical Knowledge Sharing
+My knowledge-sharing initiatives will also consist of deconstructing difficult PyTorch concepts into a series of tutorials that provide an application-based learning experience. I will:
+- Create blog posts and YouTube tutorials on things like mastering PyTorch, debugging models, fine-tuning open-source LLMs, RAG architectures, and TorchScript optimizations 
+- Develop open-source templates that leverage PyTorch with FastAPI and Next.js to easily create streamlined AI prototypes 
+- Run "From Zero to Model" guided challenges for beginner ML enthusiasts
+Open-Source Contributions
+My involvement with multiple open-source initiatives, such as Skore (probabl.ai), included tasks like documentation development and bug and logic fixes. I deprecated outdated Plotly usage and enhanced feature handling, simultaneously adding scikit-learn metrics, along with contributions to AiiDA, FreeCodeCamp, Certego, QuTiP, and pvlib through bug fixes, documentation updates, and enhancements.
+Vision for PyTorch Ambassadorship
+As an ambassador, I hope to:
+- Scale usage of PyTorch in underrepresented communities, specifically South Asia
+- Connect gaps between academia and industry by demonstrating how Pytorch can provide the engine needed to power real-world research (e.g., scientific ML)
+- Create communities that focus on open learning, reproducibility, and inclusion in innovation.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+References for the above Information :
+LinkedIn : https://www.linkedin.com/in/muhammad-rebaal-34936616a/
+GDGoC-UoK Site : https://gdg.community.dev/gdg-on-campus-university-of-karachi-karachi-pakistan/
+MLSA Site : https://mvp.microsoft.com/en-US/studentambassadors/profile/7c13946d-9bf0-4ec9-bf86-936baabd8ac6</t>
         </is>
       </c>
       <c r="E1487" s="2" t="inlineStr"/>
@@ -29096,28 +29567,32 @@
       <c r="I1513" t="inlineStr"/>
     </row>
     <row r="1514">
-      <c r="A1514" s="2" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
+      <c r="A1514" s="2" t="n">
+        <v>70</v>
       </c>
       <c r="B1514" s="2" t="inlineStr">
         <is>
-          <t>Marimuthu</t>
+          <t>Md</t>
         </is>
       </c>
       <c r="C1514" s="2" t="inlineStr">
         <is>
-          <t>Kalimuthu</t>
+          <t>Rahi</t>
         </is>
       </c>
       <c r="D1514" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As someone who works deeply with large language models and computer vision, PyTorch has been at the core of almost everything I do. It’s not just a tool for me—it’s something I actively teach, explore, and promote in my local and online communities, especially in my university. I already have YouTube channel where I talk about ML models and try the models with the torch framework. If selected as a PyTorch Ambassador, I plan to give back by helping others build confidence in using PyTorch, whether they're just starting out or looking to go deeper.
+I’m especially passionate about supporting students and early-career developers in underrepresented regions like mine (Rajshahi, Bangladesh). I want to host workshops—both virtual and in-person—where people can learn by doing. I’ll create more content based on real-world projects than now, break down complex topics in simple terms, and share tips from my experience working with cutting-edge models. I’m also committed to mentoring others and building a strong, collaborative PyTorch community around me.
+For me, being an ambassador is not about just the title—it’s about creating more pretty opportunities for people to grow with PyTorch the way I did.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+I’ve published a research paper with Elsevier on a computer vision-based machine learning model for nutrition detection, built using PyTorch as the core framework. Beyond academics, I co-manage a Facebook group called RNN (RUET Neural Network) for our university, where I regularly engage with peers and juniors interested in AI, machine learning, and deep learning. On the professional side, I’m currently working with an AI startup where I'm developing a Bangla transcription model—again using PyTorch. Whether it's research, community building, or real-world product development, PyTorch has been like the horse of my journey.</t>
         </is>
       </c>
       <c r="E1514" s="2" t="inlineStr"/>
@@ -29607,28 +30082,34 @@
       <c r="I1540" t="inlineStr"/>
     </row>
     <row r="1541">
-      <c r="A1541" s="2" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
+      <c r="A1541" s="2" t="n">
+        <v>69</v>
       </c>
       <c r="B1541" s="2" t="inlineStr">
         <is>
-          <t>Md</t>
+          <t>Windsor</t>
         </is>
       </c>
       <c r="C1541" s="2" t="inlineStr">
         <is>
-          <t>Rahi</t>
+          <t>Nguyen</t>
         </is>
       </c>
       <c r="D1541" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+The nominee is now an incoming PhD student at Princeton University with a lot of time on his hands. He has written research papers using PyTorch.
+He plans to write numerous blog posts and YouTube videos containing cool PyTorch tutorials such as pretraining tutorials with the new FSDP2 API, the ins-and-outs of the PyTorch compiler (e.g. registering custom CUDA op. so no graph breaks), integrating PyTorch with Triton, etc.
+He is a big believer in PyTorch's ability to continue leading as the forefront framework for machine learning and is eager to spread the message of PyTorch to others (e.g. hosting PyTorch workshops for the students at Princeton University).
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+Paper: https://arxiv.org/pdf/2409.10489v3
+Code sample: https://github.com/hazan-lab/stu
+Personal website (where the blogs will go): https://www.windsornguyen.com/</t>
         </is>
       </c>
       <c r="E1541" s="2" t="inlineStr"/>
@@ -30118,28 +30599,30 @@
       <c r="I1567" t="inlineStr"/>
     </row>
     <row r="1568">
-      <c r="A1568" s="2" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
+      <c r="A1568" s="2" t="n">
+        <v>67</v>
       </c>
       <c r="B1568" s="2" t="inlineStr">
         <is>
-          <t>SIDOW</t>
+          <t>Amir</t>
         </is>
       </c>
       <c r="C1568" s="2" t="inlineStr">
         <is>
-          <t>SIDOW</t>
+          <t>Bhattarai</t>
         </is>
       </c>
       <c r="D1568" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I am from Nepal. I am one of those people who use PyTorch for building deep learning and computer vision models but also for fine-tuning large language models. My areas of interest are computer vision and generative AI. I believe it's better for me to justify my time sharing knowledge. Hence, I am planning to contribute to the PyTorch community by creating technical content such as blogs, videos, and tutorials. Although I have done a bunch of projects in PyTorch, I've never posted the contents online due to some inconveniences following my studies and research. I can assure you that I have a decent background in PyTorch and agree to help this community thrive. Lastly, I am also open to hosting events, as I have led a few workshops in my area before. I prefer virtual events. But if it is really necessary, I can also foster physical workshops.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1568" s="2" t="inlineStr"/>
@@ -30629,28 +31112,34 @@
       <c r="I1594" t="inlineStr"/>
     </row>
     <row r="1595">
-      <c r="A1595" s="2" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
+      <c r="A1595" s="2" t="n">
+        <v>64</v>
       </c>
       <c r="B1595" s="2" t="inlineStr">
         <is>
-          <t>Fedor</t>
+          <t>Abdul</t>
         </is>
       </c>
       <c r="C1595" s="2" t="inlineStr">
         <is>
-          <t>Shabashev</t>
+          <t>Khan</t>
         </is>
       </c>
       <c r="D1595" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I won’t claim I’ll do everything perfectly from day one—but I do have the heart for it. I come from a background where access to AI and PyTorch resources isn’t easy, and I’ve seen how lost students can feel when there’s no proper guidance. That’s exactly why I want to engage with the PyTorch community—not just as a contributor, but as someone who understands the struggle and wants to make the journey easier for others.
+My plan is to start small but consistent. I’ll host beginner-friendly sessions and workshops, especially in universities where AI seems scary to most students. I want to create safe learning spaces—online or offline—where people can ask questions without feeling intimidated by those who are already ahead of them. I’ll also try to share content in both English and Urdu to make it more accessible.
+Mentorship is close to my heart too. I’ve already been helping my juniors and peers, and I’d love to continue that under the PyTorch banner—maybe by starting a study group or mentorship circle where we learn and grow together. I also plan to contribute to open-source PyTorch projects, even if it’s just by improving documentation or answering beginner questions.
+It's going to be a two-way learning process. I want to show up consistently, help where I can, and give back to the same community that helped me become who I am today.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+I am a lab instructor at FAST NUCES Islamabad. Here is my profile URL:
+http://isb.nu.edu.pk/Faculty/Details/7125</t>
         </is>
       </c>
       <c r="E1595" s="2" t="inlineStr"/>
@@ -31140,28 +31629,31 @@
       <c r="I1621" t="inlineStr"/>
     </row>
     <row r="1622">
-      <c r="A1622" s="2" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
+      <c r="A1622" s="2" t="n">
+        <v>58</v>
       </c>
       <c r="B1622" s="2" t="inlineStr">
         <is>
-          <t>Prakash</t>
+          <t>Hamza</t>
         </is>
       </c>
       <c r="C1622" s="2" t="inlineStr">
         <is>
-          <t>Baburaj</t>
+          <t>Gbada</t>
         </is>
       </c>
       <c r="D1622" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador, I plan to build a strong bridge between the academic, open-source, and practitioner communities. I will continue producing and maintaining high-quality, PyTorch-based educational content—ranging from tutorials and research implementations to hands-on workshops. I also aim to initiate a PyTorch user group in Tunisia to host local meetups, webinars, and study sessions focused on real-world use cases of PyTorch, especially in document AI and graph learning.
+Given my background as a university lecturer, I am well-positioned to mentor students and early-career professionals, helping them understand PyTorch beyond the basics and guide them in contributing to open-source. I am also eager to collaborate on technical challenges within the PyTorch ecosystem and contribute via code, documentation, or community discussions to ensure the framework continues evolving with user needs.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1622" s="2" t="inlineStr"/>
@@ -31651,10 +32143,8 @@
       <c r="I1648" t="inlineStr"/>
     </row>
     <row r="1649">
-      <c r="A1649" s="2" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
+      <c r="A1649" s="2" t="n">
+        <v>55</v>
       </c>
       <c r="B1649" s="2" t="inlineStr">
         <is>
@@ -31668,11 +32158,24 @@
       </c>
       <c r="D1649" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a Computer Engineering undergraduate passionate about deep learning frameworks, I would leverage my technical background and enthusiasm to make meaningful contributions as a PyTorch Ambassador. My academic foundation in computer architecture, algorithms, and systems programming provides me with a unique perspective on PyTorch's capabilities and implementation. I would engage with the community by organizing bi-weekly study groups on campus where fellow students could collaborate on PyTorch projects, troubleshoot implementation challenges, and explore the latest framework updates. These sessions would create a supportive environment for newcomers while allowing experienced users to deepen their knowledge through teaching others.
+I plan to develop a series of hands-on workshops specifically designed for undergraduate engineering students, bridging the gap between theoretical classroom knowledge and practical PyTorch applications. These workshops would focus on applying PyTorch to engineering problems, such as computer vision for robotics applications and signal processing with neural networks. Additionally, I would create and maintain a repository of annotated implementations that demonstrate how to transition from engineering mathematics to PyTorch code, helping my peers overcome the initial learning curve.
+To expand PyTorch's reach within the computer engineering community, I would collaborate with student chapters of professional organizations like IEEE to host joint events that showcase PyTorch's capabilities for embedded systems and edge computing applications. I would also establish a mentorship program connecting undergraduate students with graduate researchers and industry professionals using PyTorch, creating pathways for deeper involvement in the ecosystem. Through these initiatives, I would help cultivate a new generation of PyTorch developers who bring an engineering perspective to machine learning development, ultimately strengthening and diversifying the broader PyTorch community.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+CV: https://drive.google.com/file/d/15M6d9FsgUnga19DvuuFTSrW9UFd_5w2U/view?usp=sharing
+LinkedIn: https://www.linkedin.com/in/manithj/
+Personal Web: https://manith.me/
+As a Computer Engineering undergraduate at General Sir John Kotelawala Defence University in Sri Lanka, I would bring my unique perspective and technical background to the PyTorch Ambassador role. My academic foundation in computer engineering, combined with my experience as Volunteer Affairs Manager at IEEE, has equipped me with both the technical knowledge and community organizing skills needed to make meaningful contributions to the PyTorch ecosystem.
+Drawing on my programming experience with Python and my repositories like ML-Notes-by-Manith, I would create localized educational content tailored specifically for Sri Lankan students and developers. I plan to organize bi-weekly PyTorch study groups on the KDU campus, creating an environment where fellow engineering students can collaborate on projects, troubleshoot implementation challenges, and explore the latest framework features together.
+Leveraging my role at IEEE, I would establish connections between the PyTorch community and the broader engineering community in Sri Lanka, organizing joint workshops and hackathons that showcase PyTorch's applications in fields relevant to local industries and research priorities. These events would help bridge the gap between theoretical classroom knowledge and practical implementation, focusing particularly on how PyTorch can be applied to agricultural technology solutions – building on my experience with projects like the R-Agro-Harvest-Predictor.
+I would also develop a series of Flask-based web applications that demonstrate how PyTorch models can be deployed in production environments, expanding on my Flask_A-Z tutorial repository to create accessible examples for other undergraduates. Through my personal website (manith.me) and GitHub presence, I would document these implementation journeys, creating a resource hub specifically designed for computer engineering students transitioning into machine learning development.
+By focusing on these initiatives, I aim to foster a thriving PyTorch community within Sri Lanka's academic institutions, helping to diversify the global PyTorch ecosystem while creating pathways for underrepresented developers to contribute meaningfully to the framework's growth and evolution.</t>
         </is>
       </c>
       <c r="E1649" s="2" t="inlineStr"/>
@@ -32162,28 +32665,36 @@
       <c r="I1675" t="inlineStr"/>
     </row>
     <row r="1676">
-      <c r="A1676" s="2" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
+      <c r="A1676" s="2" t="n">
+        <v>51</v>
       </c>
       <c r="B1676" s="2" t="inlineStr">
         <is>
-          <t>Mazen</t>
+          <t>Kevin</t>
         </is>
       </c>
       <c r="C1676" s="2" t="inlineStr">
         <is>
-          <t>Alotaibi</t>
+          <t>Vega</t>
         </is>
       </c>
       <c r="D1676" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a computer science educator, machine learning practitioner, and active community contributor, I believe I can meaningfully advance the goals of the PyTorch Ambassador Program through education, mentorship, and community engagement in the Philippines and beyond.
+With over a decade of experience in both academia and software development, I am in a unique position to bridge the gap between theoretical understanding and practical application of PyTorch. I currently teach Machine Learning and related subjects at Ateneo de Naga University, where I integrate PyTorch into my course materials and student projects. As an ambassador, I plan to formalize this further by developing open educational resources, tutorials, and project templates centered on PyTorch for Filipino students and early-career developers.
+Having mentored students and software engineers through classroom instruction and industry work, I will use the ambassador platform to establish local and virtual mentorship channels for those exploring deep learning with PyTorch. I aim to prioritize inclusivity by reaching out to underrepresented groups in tech, particularly in rural or regional academic institutions in the Philippines.
+I have previously conducted training sessions for the Department of Science and Technology and served as a speaker and judge in programming and innovation events. Leveraging this experience, I plan to host PyTorch-focused events such as hands-on workshops, hackathons, and research talks. These events will not only promote PyTorch but also foster collaboration across universities and tech communities.
+My research background—including projects in medical imaging, activity recognition, and phylogenetics—highlights my capability to apply PyTorch in diverse domains. I intend to contribute back to the community by publishing example use cases and lightweight models that address real-world problems relevant to Southeast Asia, such as agriculture, health diagnostics, and education.
+By cultivating student interest and enabling open-source contributions, I aim to grow a regional PyTorch user group that thrives even beyond my direct involvement. My long-term vision includes building partnerships with universities and startups to embed PyTorch into innovation pipelines.
+In summary, as a PyTorch Ambassador, I will champion open, inclusive, and applied deep learning education in the Philippines, with a strong commitment to community-led growth and impact.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1676" s="2" t="inlineStr"/>
@@ -32673,28 +33184,30 @@
       <c r="I1702" t="inlineStr"/>
     </row>
     <row r="1703">
-      <c r="A1703" s="2" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
+      <c r="A1703" s="2" t="n">
+        <v>47</v>
       </c>
       <c r="B1703" s="2" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Pradheep</t>
         </is>
       </c>
       <c r="C1703" s="2" t="inlineStr">
         <is>
-          <t>Goheen</t>
+          <t>Raghavan</t>
         </is>
       </c>
       <c r="D1703" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+use pytorch and posy about it
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1703" s="2" t="inlineStr"/>
@@ -33184,28 +33697,32 @@
       <c r="I1729" t="inlineStr"/>
     </row>
     <row r="1730">
-      <c r="A1730" s="2" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
+      <c r="A1730" s="2" t="n">
+        <v>41</v>
       </c>
       <c r="B1730" s="2" t="inlineStr">
         <is>
-          <t>Pradheep</t>
+          <t>Wajahat</t>
         </is>
       </c>
       <c r="C1730" s="2" t="inlineStr">
         <is>
-          <t>Raghavan</t>
+          <t>Khan</t>
         </is>
       </c>
       <c r="D1730" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a passionate daily user of PyTorch in my research, I am deeply committed to contributing to the community that empowers so much of modern AI work. While I don’t claim to know everything about PyTorch, I am a fast learner and genuinely enthusiastic about exploring and building with it. What excites me most is PyTorch’s flexibility, it enables researchers and developers to build custom tools and workflows. My long term goal is to develop and opensource my own PyTorch based library that becomes widely used in the research community.
+To move toward that goal, I want to become more involved with the PyTorch community and help it grow, especially in South Korea, where I currently live. Despite the strong developer ecosystem here, I have noticed a lack of accessible PyTorch focused events especially those conducted in English. As an Ambassador, I would take the initiative to organize and host inclusive, English language events, workshops, and meetups that would welcome both local and international audiences.
+In addition to events, I love sharing knowledge and would be eager to mentor others, especially students and early career researchers. I have picked up a number of practical insights and techniques through hands on experimentation with PyTorch, and I’m excited to teach others and foster a supportive learning environment. By creating more spaces for collaboration and knowledge sharing, I hope to help the PyTorch initiative thrive and inspire others to contribute to its open-source ecosystem.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+wajahat-alikhan.github.io</t>
         </is>
       </c>
       <c r="E1730" s="2" t="inlineStr"/>
@@ -33695,28 +34212,33 @@
       <c r="I1756" t="inlineStr"/>
     </row>
     <row r="1757">
-      <c r="A1757" s="2" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
+      <c r="A1757" s="2" t="n">
+        <v>33</v>
       </c>
       <c r="B1757" s="2" t="inlineStr">
         <is>
-          <t>Yadnyesh</t>
+          <t>shashanka</t>
         </is>
       </c>
       <c r="C1757" s="2" t="inlineStr">
         <is>
-          <t>Chakane</t>
+          <t>br</t>
         </is>
       </c>
       <c r="D1757" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As an Ambassador, I plan to actively contribute to the PyTorch community in a few simple ways:
+First, I'll lead my local PyTorch community. This means hosting regular meetups or online events, probably one every few months, to bring people together. I'll also jump into discussions on PyTorch's Slack and forums, helping out where I can and sharing what I learn from our local group.
+Second, I'm committed to learning and growing. I'll go through the Ambassador training and stay updated on all the new PyTorch features. My goal is to become a go-to person for PyTorch, helping others learn and solve their problems.
+Finally, I'll share what I know. I'll create content like simple tutorials or blog posts to help more people understand PyTorch. I'll also promote great work from our community and share important PyTorch updates on my social media.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1757" s="2" t="inlineStr"/>
@@ -34206,28 +34728,30 @@
       <c r="I1783" t="inlineStr"/>
     </row>
     <row r="1784">
-      <c r="A1784" s="2" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+      <c r="A1784" s="2" t="n">
+        <v>31</v>
       </c>
       <c r="B1784" s="2" t="inlineStr">
         <is>
-          <t>Md</t>
+          <t>Irakli</t>
         </is>
       </c>
       <c r="C1784" s="2" t="inlineStr">
         <is>
-          <t>Shad</t>
+          <t>Salia</t>
         </is>
       </c>
       <c r="D1784" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I could organize PyTorch related meetings once a quarter in Tbilisi, Georgia which is becoming quite active and attractive place in AI/ML domain, keep contributing to MPS side of things in torch(derived mainly from github issues) and participate in PyTorch forum discussions
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1784" s="2" t="inlineStr"/>
@@ -34716,519 +35240,8 @@
       </c>
       <c r="I1810" t="inlineStr"/>
     </row>
-    <row r="1811">
-      <c r="A1811" s="2" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="B1811" s="2" t="inlineStr">
-        <is>
-          <t>Ameer</t>
-        </is>
-      </c>
-      <c r="C1811" s="2" t="inlineStr">
-        <is>
-          <t>Hadi</t>
-        </is>
-      </c>
-      <c r="D1811" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
-        </is>
-      </c>
-      <c r="E1811" s="2" t="inlineStr"/>
-      <c r="F1811" t="inlineStr">
-        <is>
-          <t>Technical Expertise</t>
-        </is>
-      </c>
-      <c r="G1811" t="inlineStr">
-        <is>
-          <t>Proficiency with the PyTorch Ecosystem</t>
-        </is>
-      </c>
-      <c r="H1811" t="inlineStr">
-        <is>
-          <t>Demonstrated knowledge and practical experience with PyTorch, including model building, traininga and deployment?</t>
-        </is>
-      </c>
-      <c r="I1811" t="inlineStr"/>
-    </row>
-    <row r="1812">
-      <c r="F1812" t="inlineStr">
-        <is>
-          <t>Technical Expertise</t>
-        </is>
-      </c>
-      <c r="G1812" t="inlineStr">
-        <is>
-          <t>Proficiency with the PyTorch Ecosystem</t>
-        </is>
-      </c>
-      <c r="H1812" t="inlineStr">
-        <is>
-          <t>Familiarity with foundation-hosted projects, vLLM, DeepSpeed?</t>
-        </is>
-      </c>
-      <c r="I1812" t="inlineStr"/>
-    </row>
-    <row r="1813">
-      <c r="F1813" t="inlineStr">
-        <is>
-          <t>Open Source Contributions</t>
-        </is>
-      </c>
-      <c r="G1813" t="inlineStr">
-        <is>
-          <t>Community Contributions</t>
-        </is>
-      </c>
-      <c r="H1813" t="inlineStr">
-        <is>
-          <t>Made commits, PRs, issues filed, and code reviews across PyTorch and its ecosystem repositories?</t>
-        </is>
-      </c>
-      <c r="I1813" t="inlineStr"/>
-    </row>
-    <row r="1814">
-      <c r="F1814" t="inlineStr">
-        <is>
-          <t>Open Source Contributions</t>
-        </is>
-      </c>
-      <c r="G1814" t="inlineStr">
-        <is>
-          <t>Community Contributions</t>
-        </is>
-      </c>
-      <c r="H1814" t="inlineStr">
-        <is>
-          <t>Evidence of active participation in community discussions, RFCs, and GitHub projects?</t>
-        </is>
-      </c>
-      <c r="I1814" t="inlineStr"/>
-    </row>
-    <row r="1815">
-      <c r="F1815" t="inlineStr">
-        <is>
-          <t>Open Source Contributions</t>
-        </is>
-      </c>
-      <c r="G1815" t="inlineStr">
-        <is>
-          <t>Community Contributions</t>
-        </is>
-      </c>
-      <c r="H1815" t="inlineStr">
-        <is>
-          <t>Maintenance or leadership of related open source projects or libraries?</t>
-        </is>
-      </c>
-      <c r="I1815" t="inlineStr"/>
-    </row>
-    <row r="1816">
-      <c r="F1816" t="inlineStr">
-        <is>
-          <t>Thought Leadership and Technical Writing</t>
-        </is>
-      </c>
-      <c r="G1816" t="inlineStr">
-        <is>
-          <t>Publishing</t>
-        </is>
-      </c>
-      <c r="H1816" t="inlineStr">
-        <is>
-          <t>Authored technical blog posts, whitepapers, tutorials, or case studies on PyTorch or its ecosystem?</t>
-        </is>
-      </c>
-      <c r="I1816" t="inlineStr"/>
-    </row>
-    <row r="1817">
-      <c r="F1817" t="inlineStr">
-        <is>
-          <t>Thought Leadership and Technical Writing</t>
-        </is>
-      </c>
-      <c r="G1817" t="inlineStr">
-        <is>
-          <t>Publishing</t>
-        </is>
-      </c>
-      <c r="H1817" t="inlineStr">
-        <is>
-          <t>Published academic research papers or publications in relevant scientific journals or conferences?</t>
-        </is>
-      </c>
-      <c r="I1817" t="inlineStr"/>
-    </row>
-    <row r="1818">
-      <c r="F1818" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1818" t="inlineStr">
-        <is>
-          <t>Event Organization and Involvement</t>
-        </is>
-      </c>
-      <c r="H1818" t="inlineStr">
-        <is>
-          <t>Experience organizing or leading community events such as meetups, conferences, study groups, or hackathons?</t>
-        </is>
-      </c>
-      <c r="I1818" t="inlineStr"/>
-    </row>
-    <row r="1819">
-      <c r="F1819" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1819" t="inlineStr">
-        <is>
-          <t>Event Organization and Involvement</t>
-        </is>
-      </c>
-      <c r="H1819" t="inlineStr">
-        <is>
-          <t>Participation in significant developer or ML community events (e.g., NeurIPS, PyTorch Conference, ICML, CVPR,...)</t>
-        </is>
-      </c>
-      <c r="I1819" t="inlineStr"/>
-    </row>
-    <row r="1820">
-      <c r="F1820" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1820" t="inlineStr">
-        <is>
-          <t>Public Speaking and Presentation Skills</t>
-        </is>
-      </c>
-      <c r="H1820" t="inlineStr">
-        <is>
-          <t>Record of delivering talks, webinars, or workshops on PyTorch-related topics?</t>
-        </is>
-      </c>
-      <c r="I1820" t="inlineStr"/>
-    </row>
-    <row r="1821">
-      <c r="F1821" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1821" t="inlineStr">
-        <is>
-          <t>Public Speaking and Presentation Skills</t>
-        </is>
-      </c>
-      <c r="H1821" t="inlineStr">
-        <is>
-          <t>Ability to communicate complex concepts clearly to both technical and non-technical audiences?</t>
-        </is>
-      </c>
-      <c r="I1821" t="inlineStr"/>
-    </row>
-    <row r="1822">
-      <c r="F1822" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1822" t="inlineStr">
-        <is>
-          <t>Public Speaking and Presentation Skills</t>
-        </is>
-      </c>
-      <c r="H1822" t="inlineStr">
-        <is>
-          <t>Sample video recordings or links to previous talks?</t>
-        </is>
-      </c>
-      <c r="I1822" t="inlineStr"/>
-    </row>
-    <row r="1823">
-      <c r="F1823" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1823" t="inlineStr">
-        <is>
-          <t>Mentorship and Education</t>
-        </is>
-      </c>
-      <c r="H1823" t="inlineStr">
-        <is>
-          <t>Experience mentoring students, junior developers, or researchers?</t>
-        </is>
-      </c>
-      <c r="I1823" t="inlineStr"/>
-    </row>
-    <row r="1824">
-      <c r="F1824" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1824" t="inlineStr">
-        <is>
-          <t>Mentorship and Education</t>
-        </is>
-      </c>
-      <c r="H1824" t="inlineStr">
-        <is>
-          <t>Development or teaching of curricula or courses related to machine learning, deep learning, or distributed systems?</t>
-        </is>
-      </c>
-      <c r="I1824" t="inlineStr"/>
-    </row>
-    <row r="1825">
-      <c r="F1825" t="inlineStr">
-        <is>
-          <t>Online Influence and Reach</t>
-        </is>
-      </c>
-      <c r="G1825" t="inlineStr">
-        <is>
-          <t>Social Media and Content Creation</t>
-        </is>
-      </c>
-      <c r="H1825" t="inlineStr">
-        <is>
-          <t>Active presence on platforms like Twitter, LinkedIn, YouTube, Medium, or personal blogs with a focus on machine learning, AI, or software development?</t>
-        </is>
-      </c>
-      <c r="I1825" t="inlineStr"/>
-    </row>
-    <row r="1826">
-      <c r="F1826" t="inlineStr">
-        <is>
-          <t>Online Influence and Reach</t>
-        </is>
-      </c>
-      <c r="G1826" t="inlineStr">
-        <is>
-          <t>Social Media and Content Creation</t>
-        </is>
-      </c>
-      <c r="H1826" t="inlineStr">
-        <is>
-          <t>Consistency and quality of content promoting PyTorch and associated tools?</t>
-        </is>
-      </c>
-      <c r="I1826" t="inlineStr"/>
-    </row>
-    <row r="1827">
-      <c r="F1827" t="inlineStr">
-        <is>
-          <t>Online Influence and Reach</t>
-        </is>
-      </c>
-      <c r="G1827" t="inlineStr">
-        <is>
-          <t>Community Impact Metrics</t>
-        </is>
-      </c>
-      <c r="H1827" t="inlineStr">
-        <is>
-          <t>High number of followers, subscribers, or consistent engagement levels with online content (&gt;10,000 followers/&gt;100,000 subs)?</t>
-        </is>
-      </c>
-      <c r="I1827" t="inlineStr"/>
-    </row>
-    <row r="1828">
-      <c r="F1828" t="inlineStr">
-        <is>
-          <t>Online Influence and Reach</t>
-        </is>
-      </c>
-      <c r="G1828" t="inlineStr">
-        <is>
-          <t>Community Impact Metrics</t>
-        </is>
-      </c>
-      <c r="H1828" t="inlineStr">
-        <is>
-          <t>Demonstrated ability to spark discussion, share knowledge, and grow community awareness?</t>
-        </is>
-      </c>
-      <c r="I1828" t="inlineStr"/>
-    </row>
-    <row r="1829">
-      <c r="F1829" t="inlineStr">
-        <is>
-          <t>Alignment and Values</t>
-        </is>
-      </c>
-      <c r="G1829" t="inlineStr">
-        <is>
-          <t>Alignment with PyTorch Foundation Values</t>
-        </is>
-      </c>
-      <c r="H1829" t="inlineStr">
-        <is>
-          <t>Commitment to open source principles, community-first development, and inclusive collaboration?</t>
-        </is>
-      </c>
-      <c r="I1829" t="inlineStr"/>
-    </row>
-    <row r="1830">
-      <c r="F1830" t="inlineStr">
-        <is>
-          <t>Alignment and Values</t>
-        </is>
-      </c>
-      <c r="G1830" t="inlineStr">
-        <is>
-          <t>Alignment with PyTorch Foundation Values</t>
-        </is>
-      </c>
-      <c r="H1830" t="inlineStr">
-        <is>
-          <t>Advocacy for responsible AI development and ethical machine learning practices?</t>
-        </is>
-      </c>
-      <c r="I1830" t="inlineStr"/>
-    </row>
-    <row r="1831">
-      <c r="F1831" t="inlineStr">
-        <is>
-          <t>Motivation and Vision</t>
-        </is>
-      </c>
-      <c r="G1831" t="inlineStr">
-        <is>
-          <t>Vision</t>
-        </is>
-      </c>
-      <c r="H1831" t="inlineStr">
-        <is>
-          <t>Clear articulation of why they want to be an Ambassador and what they hope to accomplish?</t>
-        </is>
-      </c>
-      <c r="I1831" t="inlineStr"/>
-    </row>
-    <row r="1832">
-      <c r="F1832" t="inlineStr">
-        <is>
-          <t>Motivation and Vision</t>
-        </is>
-      </c>
-      <c r="G1832" t="inlineStr">
-        <is>
-          <t>Vision</t>
-        </is>
-      </c>
-      <c r="H1832" t="inlineStr">
-        <is>
-          <t>Proposed goals or initiatives that align with the mission of the PyTorch Foundation?</t>
-        </is>
-      </c>
-      <c r="I1832" t="inlineStr"/>
-    </row>
-    <row r="1833">
-      <c r="F1833" t="inlineStr">
-        <is>
-          <t>Additional Bonus Criteria</t>
-        </is>
-      </c>
-      <c r="G1833" t="inlineStr">
-        <is>
-          <t>Cross-Community Collaboration</t>
-        </is>
-      </c>
-      <c r="H1833" t="inlineStr">
-        <is>
-          <t>Contributions or bridges to other relevant ecosystems (e.g., HuggingFace?)</t>
-        </is>
-      </c>
-      <c r="I1833" t="inlineStr"/>
-    </row>
-    <row r="1834">
-      <c r="F1834" t="inlineStr">
-        <is>
-          <t>Additional Bonus Criteria</t>
-        </is>
-      </c>
-      <c r="G1834" t="inlineStr">
-        <is>
-          <t>Cross-Community Collaboration</t>
-        </is>
-      </c>
-      <c r="H1834" t="inlineStr">
-        <is>
-          <t>Integration work across tools or libraries within the AI/ML infrastructure landscape?</t>
-        </is>
-      </c>
-      <c r="I1834" t="inlineStr"/>
-    </row>
-    <row r="1835">
-      <c r="F1835" t="inlineStr">
-        <is>
-          <t>Additional Bonus Criteria</t>
-        </is>
-      </c>
-      <c r="G1835" t="inlineStr">
-        <is>
-          <t>Geographic and Demographic Diversity</t>
-        </is>
-      </c>
-      <c r="H1835" t="inlineStr">
-        <is>
-          <t>Representation from underrepresented regions or groups to foster inclusivity and global outreach?</t>
-        </is>
-      </c>
-      <c r="I1835" t="inlineStr"/>
-    </row>
-    <row r="1836">
-      <c r="F1836" t="inlineStr">
-        <is>
-          <t>Additional Bonus Criteria</t>
-        </is>
-      </c>
-      <c r="G1836" t="inlineStr">
-        <is>
-          <t>Innovation and Pioneering Work</t>
-        </is>
-      </c>
-      <c r="H1836" t="inlineStr">
-        <is>
-          <t>Early adoption or novel application of PyTorch or its ecosystem tools in industry, research, or startups?</t>
-        </is>
-      </c>
-      <c r="I1836" t="inlineStr"/>
-    </row>
-    <row r="1837">
-      <c r="F1837" t="inlineStr">
-        <is>
-          <t>Credibility</t>
-        </is>
-      </c>
-      <c r="G1837" t="inlineStr">
-        <is>
-          <t>Community References</t>
-        </is>
-      </c>
-      <c r="H1837" t="inlineStr">
-        <is>
-          <t>References from other known community members?</t>
-        </is>
-      </c>
-      <c r="I1837" t="inlineStr"/>
-    </row>
   </sheetData>
-  <mergeCells count="340">
+  <mergeCells count="335">
     <mergeCell ref="B1703:B1729"/>
     <mergeCell ref="A974:A1000"/>
     <mergeCell ref="E1109:E1135"/>
@@ -35289,7 +35302,6 @@
     <mergeCell ref="D488:D514"/>
     <mergeCell ref="A785:A811"/>
     <mergeCell ref="C785:C811"/>
-    <mergeCell ref="C1811:C1837"/>
     <mergeCell ref="D1460:D1486"/>
     <mergeCell ref="B1622:B1648"/>
     <mergeCell ref="D1622:D1648"/>
@@ -35370,7 +35382,6 @@
     <mergeCell ref="B1406:B1432"/>
     <mergeCell ref="B1325:B1351"/>
     <mergeCell ref="D1136:D1162"/>
-    <mergeCell ref="E1811:E1837"/>
     <mergeCell ref="D1568:D1594"/>
     <mergeCell ref="E1460:E1486"/>
     <mergeCell ref="B1541:B1567"/>
@@ -35526,8 +35537,6 @@
     <mergeCell ref="D245:D271"/>
     <mergeCell ref="A515:A541"/>
     <mergeCell ref="D1271:D1297"/>
-    <mergeCell ref="B1811:B1837"/>
-    <mergeCell ref="D1811:D1837"/>
     <mergeCell ref="B1379:B1405"/>
     <mergeCell ref="D1379:D1405"/>
     <mergeCell ref="A1163:A1189"/>
@@ -35565,13 +35574,12 @@
     <mergeCell ref="C218:C244"/>
     <mergeCell ref="A758:A784"/>
     <mergeCell ref="B1136:B1162"/>
-    <mergeCell ref="A1811:A1837"/>
     <mergeCell ref="E1001:E1027"/>
     <mergeCell ref="C1541:C1567"/>
     <mergeCell ref="E1541:E1567"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation sqref="I2 I3 I4 I5 I6 I7 I8 I9 I10 I11 I12 I13 I14 I15 I16 I17 I18 I19 I20 I21 I22 I23 I24 I25 I26 I27 I28 I29 I30 I31 I32 I33 I34 I35 I36 I37 I38 I39 I40 I41 I42 I43 I44 I45 I46 I47 I48 I49 I50 I51 I52 I53 I54 I55 I56 I57 I58 I59 I60 I61 I62 I63 I64 I65 I66 I67 I68 I69 I70 I71 I72 I73 I74 I75 I76 I77 I78 I79 I80 I81 I82 I83 I84 I85 I86 I87 I88 I89 I90 I91 I92 I93 I94 I95 I96 I97 I98 I99 I100 I101 I102 I103 I104 I105 I106 I107 I108 I109 I110 I111 I112 I113 I114 I115 I116 I117 I118 I119 I120 I121 I122 I123 I124 I125 I126 I127 I128 I129 I130 I131 I132 I133 I134 I135 I136 I137 I138 I139 I140 I141 I142 I143 I144 I145 I146 I147 I148 I149 I150 I151 I152 I153 I154 I155 I156 I157 I158 I159 I160 I161 I162 I163 I164 I165 I166 I167 I168 I169 I170 I171 I172 I173 I174 I175 I176 I177 I178 I179 I180 I181 I182 I183 I184 I185 I186 I187 I188 I189 I190 I191 I192 I193 I194 I195 I196 I197 I198 I199 I200 I201 I202 I203 I204 I205 I206 I207 I208 I209 I210 I211 I212 I213 I214 I215 I216 I217 I218 I219 I220 I221 I222 I223 I224 I225 I226 I227 I228 I229 I230 I231 I232 I233 I234 I235 I236 I237 I238 I239 I240 I241 I242 I243 I244 I245 I246 I247 I248 I249 I250 I251 I252 I253 I254 I255 I256 I257 I258 I259 I260 I261 I262 I263 I264 I265 I266 I267 I268 I269 I270 I271 I272 I273 I274 I275 I276 I277 I278 I279 I280 I281 I282 I283 I284 I285 I286 I287 I288 I289 I290 I291 I292 I293 I294 I295 I296 I297 I298 I299 I300 I301 I302 I303 I304 I305 I306 I307 I308 I309 I310 I311 I312 I313 I314 I315 I316 I317 I318 I319 I320 I321 I322 I323 I324 I325 I326 I327 I328 I329 I330 I331 I332 I333 I334 I335 I336 I337 I338 I339 I340 I341 I342 I343 I344 I345 I346 I347 I348 I349 I350 I351 I352 I353 I354 I355 I356 I357 I358 I359 I360 I361 I362 I363 I364 I365 I366 I367 I368 I369 I370 I371 I372 I373 I374 I375 I376 I377 I378 I379 I380 I381 I382 I383 I384 I385 I386 I387 I388 I389 I390 I391 I392 I393 I394 I395 I396 I397 I398 I399 I400 I401 I402 I403 I404 I405 I406 I407 I408 I409 I410 I411 I412 I413 I414 I415 I416 I417 I418 I419 I420 I421 I422 I423 I424 I425 I426 I427 I428 I429 I430 I431 I432 I433 I434 I435 I436 I437 I438 I439 I440 I441 I442 I443 I444 I445 I446 I447 I448 I449 I450 I451 I452 I453 I454 I455 I456 I457 I458 I459 I460 I461 I462 I463 I464 I465 I466 I467 I468 I469 I470 I471 I472 I473 I474 I475 I476 I477 I478 I479 I480 I481 I482 I483 I484 I485 I486 I487 I488 I489 I490 I491 I492 I493 I494 I495 I496 I497 I498 I499 I500 I501 I502 I503 I504 I505 I506 I507 I508 I509 I510 I511 I512 I513 I514 I515 I516 I517 I518 I519 I520 I521 I522 I523 I524 I525 I526 I527 I528 I529 I530 I531 I532 I533 I534 I535 I536 I537 I538 I539 I540 I541 I542 I543 I544 I545 I546 I547 I548 I549 I550 I551 I552 I553 I554 I555 I556 I557 I558 I559 I560 I561 I562 I563 I564 I565 I566 I567 I568 I569 I570 I571 I572 I573 I574 I575 I576 I577 I578 I579 I580 I581 I582 I583 I584 I585 I586 I587 I588 I589 I590 I591 I592 I593 I594 I595 I596 I597 I598 I599 I600 I601 I602 I603 I604 I605 I606 I607 I608 I609 I610 I611 I612 I613 I614 I615 I616 I617 I618 I619 I620 I621 I622 I623 I624 I625 I626 I627 I628 I629 I630 I631 I632 I633 I634 I635 I636 I637 I638 I639 I640 I641 I642 I643 I644 I645 I646 I647 I648 I649 I650 I651 I652 I653 I654 I655 I656 I657 I658 I659 I660 I661 I662 I663 I664 I665 I666 I667 I668 I669 I670 I671 I672 I673 I674 I675 I676 I677 I678 I679 I680 I681 I682 I683 I684 I685 I686 I687 I688 I689 I690 I691 I692 I693 I694 I695 I696 I697 I698 I699 I700 I701 I702 I703 I704 I705 I706 I707 I708 I709 I710 I711 I712 I713 I714 I715 I716 I717 I718 I719 I720 I721 I722 I723 I724 I725 I726 I727 I728 I729 I730 I731 I732 I733 I734 I735 I736 I737 I738 I739 I740 I741 I742 I743 I744 I745 I746 I747 I748 I749 I750 I751 I752 I753 I754 I755 I756 I757 I758 I759 I760 I761 I762 I763 I764 I765 I766 I767 I768 I769 I770 I771 I772 I773 I774 I775 I776 I777 I778 I779 I780 I781 I782 I783 I784 I785 I786 I787 I788 I789 I790 I791 I792 I793 I794 I795 I796 I797 I798 I799 I800 I801 I802 I803 I804 I805 I806 I807 I808 I809 I810 I811 I812 I813 I814 I815 I816 I817 I818 I819 I820 I821 I822 I823 I824 I825 I826 I827 I828 I829 I830 I831 I832 I833 I834 I835 I836 I837 I838 I839 I840 I841 I842 I843 I844 I845 I846 I847 I848 I849 I850 I851 I852 I853 I854 I855 I856 I857 I858 I859 I860 I861 I862 I863 I864 I865 I866 I867 I868 I869 I870 I871 I872 I873 I874 I875 I876 I877 I878 I879 I880 I881 I882 I883 I884 I885 I886 I887 I888 I889 I890 I891 I892 I893 I894 I895 I896 I897 I898 I899 I900 I901 I902 I903 I904 I905 I906 I907 I908 I909 I910 I911 I912 I913 I914 I915 I916 I917 I918 I919 I920 I921 I922 I923 I924 I925 I926 I927 I928 I929 I930 I931 I932 I933 I934 I935 I936 I937 I938 I939 I940 I941 I942 I943 I944 I945 I946 I947 I948 I949 I950 I951 I952 I953 I954 I955 I956 I957 I958 I959 I960 I961 I962 I963 I964 I965 I966 I967 I968 I969 I970 I971 I972 I973 I974 I975 I976 I977 I978 I979 I980 I981 I982 I983 I984 I985 I986 I987 I988 I989 I990 I991 I992 I993 I994 I995 I996 I997 I998 I999 I1000 I1001 I1002 I1003 I1004 I1005 I1006 I1007 I1008 I1009 I1010 I1011 I1012 I1013 I1014 I1015 I1016 I1017 I1018 I1019 I1020 I1021 I1022 I1023 I1024 I1025 I1026 I1027 I1028 I1029 I1030 I1031 I1032 I1033 I1034 I1035 I1036 I1037 I1038 I1039 I1040 I1041 I1042 I1043 I1044 I1045 I1046 I1047 I1048 I1049 I1050 I1051 I1052 I1053 I1054 I1055 I1056 I1057 I1058 I1059 I1060 I1061 I1062 I1063 I1064 I1065 I1066 I1067 I1068 I1069 I1070 I1071 I1072 I1073 I1074 I1075 I1076 I1077 I1078 I1079 I1080 I1081 I1082 I1083 I1084 I1085 I1086 I1087 I1088 I1089 I1090 I1091 I1092 I1093 I1094 I1095 I1096 I1097 I1098 I1099 I1100 I1101 I1102 I1103 I1104 I1105 I1106 I1107 I1108 I1109 I1110 I1111 I1112 I1113 I1114 I1115 I1116 I1117 I1118 I1119 I1120 I1121 I1122 I1123 I1124 I1125 I1126 I1127 I1128 I1129 I1130 I1131 I1132 I1133 I1134 I1135 I1136 I1137 I1138 I1139 I1140 I1141 I1142 I1143 I1144 I1145 I1146 I1147 I1148 I1149 I1150 I1151 I1152 I1153 I1154 I1155 I1156 I1157 I1158 I1159 I1160 I1161 I1162 I1163 I1164 I1165 I1166 I1167 I1168 I1169 I1170 I1171 I1172 I1173 I1174 I1175 I1176 I1177 I1178 I1179 I1180 I1181 I1182 I1183 I1184 I1185 I1186 I1187 I1188 I1189 I1190 I1191 I1192 I1193 I1194 I1195 I1196 I1197 I1198 I1199 I1200 I1201 I1202 I1203 I1204 I1205 I1206 I1207 I1208 I1209 I1210 I1211 I1212 I1213 I1214 I1215 I1216 I1217 I1218 I1219 I1220 I1221 I1222 I1223 I1224 I1225 I1226 I1227 I1228 I1229 I1230 I1231 I1232 I1233 I1234 I1235 I1236 I1237 I1238 I1239 I1240 I1241 I1242 I1243 I1244 I1245 I1246 I1247 I1248 I1249 I1250 I1251 I1252 I1253 I1254 I1255 I1256 I1257 I1258 I1259 I1260 I1261 I1262 I1263 I1264 I1265 I1266 I1267 I1268 I1269 I1270 I1271 I1272 I1273 I1274 I1275 I1276 I1277 I1278 I1279 I1280 I1281 I1282 I1283 I1284 I1285 I1286 I1287 I1288 I1289 I1290 I1291 I1292 I1293 I1294 I1295 I1296 I1297 I1298 I1299 I1300 I1301 I1302 I1303 I1304 I1305 I1306 I1307 I1308 I1309 I1310 I1311 I1312 I1313 I1314 I1315 I1316 I1317 I1318 I1319 I1320 I1321 I1322 I1323 I1324 I1325 I1326 I1327 I1328 I1329 I1330 I1331 I1332 I1333 I1334 I1335 I1336 I1337 I1338 I1339 I1340 I1341 I1342 I1343 I1344 I1345 I1346 I1347 I1348 I1349 I1350 I1351 I1352 I1353 I1354 I1355 I1356 I1357 I1358 I1359 I1360 I1361 I1362 I1363 I1364 I1365 I1366 I1367 I1368 I1369 I1370 I1371 I1372 I1373 I1374 I1375 I1376 I1377 I1378 I1379 I1380 I1381 I1382 I1383 I1384 I1385 I1386 I1387 I1388 I1389 I1390 I1391 I1392 I1393 I1394 I1395 I1396 I1397 I1398 I1399 I1400 I1401 I1402 I1403 I1404 I1405 I1406 I1407 I1408 I1409 I1410 I1411 I1412 I1413 I1414 I1415 I1416 I1417 I1418 I1419 I1420 I1421 I1422 I1423 I1424 I1425 I1426 I1427 I1428 I1429 I1430 I1431 I1432 I1433 I1434 I1435 I1436 I1437 I1438 I1439 I1440 I1441 I1442 I1443 I1444 I1445 I1446 I1447 I1448 I1449 I1450 I1451 I1452 I1453 I1454 I1455 I1456 I1457 I1458 I1459 I1460 I1461 I1462 I1463 I1464 I1465 I1466 I1467 I1468 I1469 I1470 I1471 I1472 I1473 I1474 I1475 I1476 I1477 I1478 I1479 I1480 I1481 I1482 I1483 I1484 I1485 I1486 I1487 I1488 I1489 I1490 I1491 I1492 I1493 I1494 I1495 I1496 I1497 I1498 I1499 I1500 I1501 I1502 I1503 I1504 I1505 I1506 I1507 I1508 I1509 I1510 I1511 I1512 I1513 I1514 I1515 I1516 I1517 I1518 I1519 I1520 I1521 I1522 I1523 I1524 I1525 I1526 I1527 I1528 I1529 I1530 I1531 I1532 I1533 I1534 I1535 I1536 I1537 I1538 I1539 I1540 I1541 I1542 I1543 I1544 I1545 I1546 I1547 I1548 I1549 I1550 I1551 I1552 I1553 I1554 I1555 I1556 I1557 I1558 I1559 I1560 I1561 I1562 I1563 I1564 I1565 I1566 I1567 I1568 I1569 I1570 I1571 I1572 I1573 I1574 I1575 I1576 I1577 I1578 I1579 I1580 I1581 I1582 I1583 I1584 I1585 I1586 I1587 I1588 I1589 I1590 I1591 I1592 I1593 I1594 I1595 I1596 I1597 I1598 I1599 I1600 I1601 I1602 I1603 I1604 I1605 I1606 I1607 I1608 I1609 I1610 I1611 I1612 I1613 I1614 I1615 I1616 I1617 I1618 I1619 I1620 I1621 I1622 I1623 I1624 I1625 I1626 I1627 I1628 I1629 I1630 I1631 I1632 I1633 I1634 I1635 I1636 I1637 I1638 I1639 I1640 I1641 I1642 I1643 I1644 I1645 I1646 I1647 I1648 I1649 I1650 I1651 I1652 I1653 I1654 I1655 I1656 I1657 I1658 I1659 I1660 I1661 I1662 I1663 I1664 I1665 I1666 I1667 I1668 I1669 I1670 I1671 I1672 I1673 I1674 I1675 I1676 I1677 I1678 I1679 I1680 I1681 I1682 I1683 I1684 I1685 I1686 I1687 I1688 I1689 I1690 I1691 I1692 I1693 I1694 I1695 I1696 I1697 I1698 I1699 I1700 I1701 I1702 I1703 I1704 I1705 I1706 I1707 I1708 I1709 I1710 I1711 I1712 I1713 I1714 I1715 I1716 I1717 I1718 I1719 I1720 I1721 I1722 I1723 I1724 I1725 I1726 I1727 I1728 I1729 I1730 I1731 I1732 I1733 I1734 I1735 I1736 I1737 I1738 I1739 I1740 I1741 I1742 I1743 I1744 I1745 I1746 I1747 I1748 I1749 I1750 I1751 I1752 I1753 I1754 I1755 I1756 I1757 I1758 I1759 I1760 I1761 I1762 I1763 I1764 I1765 I1766 I1767 I1768 I1769 I1770 I1771 I1772 I1773 I1774 I1775 I1776 I1777 I1778 I1779 I1780 I1781 I1782 I1783 I1784 I1785 I1786 I1787 I1788 I1789 I1790 I1791 I1792 I1793 I1794 I1795 I1796 I1797 I1798 I1799 I1800 I1801 I1802 I1803 I1804 I1805 I1806 I1807 I1808 I1809 I1810 I1811 I1812 I1813 I1814 I1815 I1816 I1817 I1818 I1819 I1820 I1821 I1822 I1823 I1824 I1825 I1826 I1827 I1828 I1829 I1830 I1831 I1832 I1833 I1834 I1835 I1836 I1837" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="I2 I3 I4 I5 I6 I7 I8 I9 I10 I11 I12 I13 I14 I15 I16 I17 I18 I19 I20 I21 I22 I23 I24 I25 I26 I27 I28 I29 I30 I31 I32 I33 I34 I35 I36 I37 I38 I39 I40 I41 I42 I43 I44 I45 I46 I47 I48 I49 I50 I51 I52 I53 I54 I55 I56 I57 I58 I59 I60 I61 I62 I63 I64 I65 I66 I67 I68 I69 I70 I71 I72 I73 I74 I75 I76 I77 I78 I79 I80 I81 I82 I83 I84 I85 I86 I87 I88 I89 I90 I91 I92 I93 I94 I95 I96 I97 I98 I99 I100 I101 I102 I103 I104 I105 I106 I107 I108 I109 I110 I111 I112 I113 I114 I115 I116 I117 I118 I119 I120 I121 I122 I123 I124 I125 I126 I127 I128 I129 I130 I131 I132 I133 I134 I135 I136 I137 I138 I139 I140 I141 I142 I143 I144 I145 I146 I147 I148 I149 I150 I151 I152 I153 I154 I155 I156 I157 I158 I159 I160 I161 I162 I163 I164 I165 I166 I167 I168 I169 I170 I171 I172 I173 I174 I175 I176 I177 I178 I179 I180 I181 I182 I183 I184 I185 I186 I187 I188 I189 I190 I191 I192 I193 I194 I195 I196 I197 I198 I199 I200 I201 I202 I203 I204 I205 I206 I207 I208 I209 I210 I211 I212 I213 I214 I215 I216 I217 I218 I219 I220 I221 I222 I223 I224 I225 I226 I227 I228 I229 I230 I231 I232 I233 I234 I235 I236 I237 I238 I239 I240 I241 I242 I243 I244 I245 I246 I247 I248 I249 I250 I251 I252 I253 I254 I255 I256 I257 I258 I259 I260 I261 I262 I263 I264 I265 I266 I267 I268 I269 I270 I271 I272 I273 I274 I275 I276 I277 I278 I279 I280 I281 I282 I283 I284 I285 I286 I287 I288 I289 I290 I291 I292 I293 I294 I295 I296 I297 I298 I299 I300 I301 I302 I303 I304 I305 I306 I307 I308 I309 I310 I311 I312 I313 I314 I315 I316 I317 I318 I319 I320 I321 I322 I323 I324 I325 I326 I327 I328 I329 I330 I331 I332 I333 I334 I335 I336 I337 I338 I339 I340 I341 I342 I343 I344 I345 I346 I347 I348 I349 I350 I351 I352 I353 I354 I355 I356 I357 I358 I359 I360 I361 I362 I363 I364 I365 I366 I367 I368 I369 I370 I371 I372 I373 I374 I375 I376 I377 I378 I379 I380 I381 I382 I383 I384 I385 I386 I387 I388 I389 I390 I391 I392 I393 I394 I395 I396 I397 I398 I399 I400 I401 I402 I403 I404 I405 I406 I407 I408 I409 I410 I411 I412 I413 I414 I415 I416 I417 I418 I419 I420 I421 I422 I423 I424 I425 I426 I427 I428 I429 I430 I431 I432 I433 I434 I435 I436 I437 I438 I439 I440 I441 I442 I443 I444 I445 I446 I447 I448 I449 I450 I451 I452 I453 I454 I455 I456 I457 I458 I459 I460 I461 I462 I463 I464 I465 I466 I467 I468 I469 I470 I471 I472 I473 I474 I475 I476 I477 I478 I479 I480 I481 I482 I483 I484 I485 I486 I487 I488 I489 I490 I491 I492 I493 I494 I495 I496 I497 I498 I499 I500 I501 I502 I503 I504 I505 I506 I507 I508 I509 I510 I511 I512 I513 I514 I515 I516 I517 I518 I519 I520 I521 I522 I523 I524 I525 I526 I527 I528 I529 I530 I531 I532 I533 I534 I535 I536 I537 I538 I539 I540 I541 I542 I543 I544 I545 I546 I547 I548 I549 I550 I551 I552 I553 I554 I555 I556 I557 I558 I559 I560 I561 I562 I563 I564 I565 I566 I567 I568 I569 I570 I571 I572 I573 I574 I575 I576 I577 I578 I579 I580 I581 I582 I583 I584 I585 I586 I587 I588 I589 I590 I591 I592 I593 I594 I595 I596 I597 I598 I599 I600 I601 I602 I603 I604 I605 I606 I607 I608 I609 I610 I611 I612 I613 I614 I615 I616 I617 I618 I619 I620 I621 I622 I623 I624 I625 I626 I627 I628 I629 I630 I631 I632 I633 I634 I635 I636 I637 I638 I639 I640 I641 I642 I643 I644 I645 I646 I647 I648 I649 I650 I651 I652 I653 I654 I655 I656 I657 I658 I659 I660 I661 I662 I663 I664 I665 I666 I667 I668 I669 I670 I671 I672 I673 I674 I675 I676 I677 I678 I679 I680 I681 I682 I683 I684 I685 I686 I687 I688 I689 I690 I691 I692 I693 I694 I695 I696 I697 I698 I699 I700 I701 I702 I703 I704 I705 I706 I707 I708 I709 I710 I711 I712 I713 I714 I715 I716 I717 I718 I719 I720 I721 I722 I723 I724 I725 I726 I727 I728 I729 I730 I731 I732 I733 I734 I735 I736 I737 I738 I739 I740 I741 I742 I743 I744 I745 I746 I747 I748 I749 I750 I751 I752 I753 I754 I755 I756 I757 I758 I759 I760 I761 I762 I763 I764 I765 I766 I767 I768 I769 I770 I771 I772 I773 I774 I775 I776 I777 I778 I779 I780 I781 I782 I783 I784 I785 I786 I787 I788 I789 I790 I791 I792 I793 I794 I795 I796 I797 I798 I799 I800 I801 I802 I803 I804 I805 I806 I807 I808 I809 I810 I811 I812 I813 I814 I815 I816 I817 I818 I819 I820 I821 I822 I823 I824 I825 I826 I827 I828 I829 I830 I831 I832 I833 I834 I835 I836 I837 I838 I839 I840 I841 I842 I843 I844 I845 I846 I847 I848 I849 I850 I851 I852 I853 I854 I855 I856 I857 I858 I859 I860 I861 I862 I863 I864 I865 I866 I867 I868 I869 I870 I871 I872 I873 I874 I875 I876 I877 I878 I879 I880 I881 I882 I883 I884 I885 I886 I887 I888 I889 I890 I891 I892 I893 I894 I895 I896 I897 I898 I899 I900 I901 I902 I903 I904 I905 I906 I907 I908 I909 I910 I911 I912 I913 I914 I915 I916 I917 I918 I919 I920 I921 I922 I923 I924 I925 I926 I927 I928 I929 I930 I931 I932 I933 I934 I935 I936 I937 I938 I939 I940 I941 I942 I943 I944 I945 I946 I947 I948 I949 I950 I951 I952 I953 I954 I955 I956 I957 I958 I959 I960 I961 I962 I963 I964 I965 I966 I967 I968 I969 I970 I971 I972 I973 I974 I975 I976 I977 I978 I979 I980 I981 I982 I983 I984 I985 I986 I987 I988 I989 I990 I991 I992 I993 I994 I995 I996 I997 I998 I999 I1000 I1001 I1002 I1003 I1004 I1005 I1006 I1007 I1008 I1009 I1010 I1011 I1012 I1013 I1014 I1015 I1016 I1017 I1018 I1019 I1020 I1021 I1022 I1023 I1024 I1025 I1026 I1027 I1028 I1029 I1030 I1031 I1032 I1033 I1034 I1035 I1036 I1037 I1038 I1039 I1040 I1041 I1042 I1043 I1044 I1045 I1046 I1047 I1048 I1049 I1050 I1051 I1052 I1053 I1054 I1055 I1056 I1057 I1058 I1059 I1060 I1061 I1062 I1063 I1064 I1065 I1066 I1067 I1068 I1069 I1070 I1071 I1072 I1073 I1074 I1075 I1076 I1077 I1078 I1079 I1080 I1081 I1082 I1083 I1084 I1085 I1086 I1087 I1088 I1089 I1090 I1091 I1092 I1093 I1094 I1095 I1096 I1097 I1098 I1099 I1100 I1101 I1102 I1103 I1104 I1105 I1106 I1107 I1108 I1109 I1110 I1111 I1112 I1113 I1114 I1115 I1116 I1117 I1118 I1119 I1120 I1121 I1122 I1123 I1124 I1125 I1126 I1127 I1128 I1129 I1130 I1131 I1132 I1133 I1134 I1135 I1136 I1137 I1138 I1139 I1140 I1141 I1142 I1143 I1144 I1145 I1146 I1147 I1148 I1149 I1150 I1151 I1152 I1153 I1154 I1155 I1156 I1157 I1158 I1159 I1160 I1161 I1162 I1163 I1164 I1165 I1166 I1167 I1168 I1169 I1170 I1171 I1172 I1173 I1174 I1175 I1176 I1177 I1178 I1179 I1180 I1181 I1182 I1183 I1184 I1185 I1186 I1187 I1188 I1189 I1190 I1191 I1192 I1193 I1194 I1195 I1196 I1197 I1198 I1199 I1200 I1201 I1202 I1203 I1204 I1205 I1206 I1207 I1208 I1209 I1210 I1211 I1212 I1213 I1214 I1215 I1216 I1217 I1218 I1219 I1220 I1221 I1222 I1223 I1224 I1225 I1226 I1227 I1228 I1229 I1230 I1231 I1232 I1233 I1234 I1235 I1236 I1237 I1238 I1239 I1240 I1241 I1242 I1243 I1244 I1245 I1246 I1247 I1248 I1249 I1250 I1251 I1252 I1253 I1254 I1255 I1256 I1257 I1258 I1259 I1260 I1261 I1262 I1263 I1264 I1265 I1266 I1267 I1268 I1269 I1270 I1271 I1272 I1273 I1274 I1275 I1276 I1277 I1278 I1279 I1280 I1281 I1282 I1283 I1284 I1285 I1286 I1287 I1288 I1289 I1290 I1291 I1292 I1293 I1294 I1295 I1296 I1297 I1298 I1299 I1300 I1301 I1302 I1303 I1304 I1305 I1306 I1307 I1308 I1309 I1310 I1311 I1312 I1313 I1314 I1315 I1316 I1317 I1318 I1319 I1320 I1321 I1322 I1323 I1324 I1325 I1326 I1327 I1328 I1329 I1330 I1331 I1332 I1333 I1334 I1335 I1336 I1337 I1338 I1339 I1340 I1341 I1342 I1343 I1344 I1345 I1346 I1347 I1348 I1349 I1350 I1351 I1352 I1353 I1354 I1355 I1356 I1357 I1358 I1359 I1360 I1361 I1362 I1363 I1364 I1365 I1366 I1367 I1368 I1369 I1370 I1371 I1372 I1373 I1374 I1375 I1376 I1377 I1378 I1379 I1380 I1381 I1382 I1383 I1384 I1385 I1386 I1387 I1388 I1389 I1390 I1391 I1392 I1393 I1394 I1395 I1396 I1397 I1398 I1399 I1400 I1401 I1402 I1403 I1404 I1405 I1406 I1407 I1408 I1409 I1410 I1411 I1412 I1413 I1414 I1415 I1416 I1417 I1418 I1419 I1420 I1421 I1422 I1423 I1424 I1425 I1426 I1427 I1428 I1429 I1430 I1431 I1432 I1433 I1434 I1435 I1436 I1437 I1438 I1439 I1440 I1441 I1442 I1443 I1444 I1445 I1446 I1447 I1448 I1449 I1450 I1451 I1452 I1453 I1454 I1455 I1456 I1457 I1458 I1459 I1460 I1461 I1462 I1463 I1464 I1465 I1466 I1467 I1468 I1469 I1470 I1471 I1472 I1473 I1474 I1475 I1476 I1477 I1478 I1479 I1480 I1481 I1482 I1483 I1484 I1485 I1486 I1487 I1488 I1489 I1490 I1491 I1492 I1493 I1494 I1495 I1496 I1497 I1498 I1499 I1500 I1501 I1502 I1503 I1504 I1505 I1506 I1507 I1508 I1509 I1510 I1511 I1512 I1513 I1514 I1515 I1516 I1517 I1518 I1519 I1520 I1521 I1522 I1523 I1524 I1525 I1526 I1527 I1528 I1529 I1530 I1531 I1532 I1533 I1534 I1535 I1536 I1537 I1538 I1539 I1540 I1541 I1542 I1543 I1544 I1545 I1546 I1547 I1548 I1549 I1550 I1551 I1552 I1553 I1554 I1555 I1556 I1557 I1558 I1559 I1560 I1561 I1562 I1563 I1564 I1565 I1566 I1567 I1568 I1569 I1570 I1571 I1572 I1573 I1574 I1575 I1576 I1577 I1578 I1579 I1580 I1581 I1582 I1583 I1584 I1585 I1586 I1587 I1588 I1589 I1590 I1591 I1592 I1593 I1594 I1595 I1596 I1597 I1598 I1599 I1600 I1601 I1602 I1603 I1604 I1605 I1606 I1607 I1608 I1609 I1610 I1611 I1612 I1613 I1614 I1615 I1616 I1617 I1618 I1619 I1620 I1621 I1622 I1623 I1624 I1625 I1626 I1627 I1628 I1629 I1630 I1631 I1632 I1633 I1634 I1635 I1636 I1637 I1638 I1639 I1640 I1641 I1642 I1643 I1644 I1645 I1646 I1647 I1648 I1649 I1650 I1651 I1652 I1653 I1654 I1655 I1656 I1657 I1658 I1659 I1660 I1661 I1662 I1663 I1664 I1665 I1666 I1667 I1668 I1669 I1670 I1671 I1672 I1673 I1674 I1675 I1676 I1677 I1678 I1679 I1680 I1681 I1682 I1683 I1684 I1685 I1686 I1687 I1688 I1689 I1690 I1691 I1692 I1693 I1694 I1695 I1696 I1697 I1698 I1699 I1700 I1701 I1702 I1703 I1704 I1705 I1706 I1707 I1708 I1709 I1710 I1711 I1712 I1713 I1714 I1715 I1716 I1717 I1718 I1719 I1720 I1721 I1722 I1723 I1724 I1725 I1726 I1727 I1728 I1729 I1730 I1731 I1732 I1733 I1734 I1735 I1736 I1737 I1738 I1739 I1740 I1741 I1742 I1743 I1744 I1745 I1746 I1747 I1748 I1749 I1750 I1751 I1752 I1753 I1754 I1755 I1756 I1757 I1758 I1759 I1760 I1761 I1762 I1763 I1764 I1765 I1766 I1767 I1768 I1769 I1770 I1771 I1772 I1773 I1774 I1775 I1776 I1777 I1778 I1779 I1780 I1781 I1782 I1783 I1784 I1785 I1786 I1787 I1788 I1789 I1790 I1791 I1792 I1793 I1794 I1795 I1796 I1797 I1798 I1799 I1800 I1801 I1802 I1803 I1804 I1805 I1806 I1807 I1808 I1809 I1810" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Yes,No,N/A"</formula1>
     </dataValidation>
   </dataValidations>
@@ -35585,7 +35593,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35661,19 +35669,17 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
+      <c r="A2" t="n">
+        <v>298</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ghassen</t>
+          <t>_No</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fatnassi</t>
+          <t>response_</t>
         </is>
       </c>
       <c r="D2">
@@ -35718,19 +35724,17 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>292</t>
-        </is>
+      <c r="A3" t="n">
+        <v>296</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carlos</t>
+          <t>Karla</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Guerra</t>
+          <t>Mauricio</t>
         </is>
       </c>
       <c r="D3">
@@ -35775,19 +35779,17 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>285</t>
-        </is>
+      <c r="A4" t="n">
+        <v>289</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alexey</t>
+          <t>Alejandro</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Gruzdev</t>
+          <t>Arroyo</t>
         </is>
       </c>
       <c r="D4">
@@ -35832,10 +35834,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>283</t>
-        </is>
+      <c r="A5" t="n">
+        <v>283</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -35889,19 +35889,17 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
+      <c r="A6" t="n">
+        <v>282</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Akash</t>
+          <t>Dhia</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Agrawal</t>
+          <t>Naouali</t>
         </is>
       </c>
       <c r="D6">
@@ -35946,19 +35944,17 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>271</t>
-        </is>
+      <c r="A7" t="n">
+        <v>275</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Kevin</t>
+          <t>Steven</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Wang</t>
+          <t>Pousty</t>
         </is>
       </c>
       <c r="D7">
@@ -36003,19 +35999,17 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>265</t>
-        </is>
+      <c r="A8" t="n">
+        <v>273</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BYAOMBE</t>
+          <t>ABDULSALAM</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Dieudonne</t>
+          <t>BANDE</t>
         </is>
       </c>
       <c r="D8">
@@ -36060,19 +36054,17 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>262</t>
-        </is>
+      <c r="A9" t="n">
+        <v>269</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Kennedy</t>
+          <t>Giorgio</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Uzoechi</t>
+          <t>Magno</t>
         </is>
       </c>
       <c r="D9">
@@ -36117,19 +36109,17 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>257</t>
-        </is>
+      <c r="A10" t="n">
+        <v>260</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Temidayo</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Gabriel</t>
+          <t>Ojodunwene</t>
         </is>
       </c>
       <c r="D10">
@@ -36174,19 +36164,17 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>254</t>
-        </is>
+      <c r="A11" t="n">
+        <v>258</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Braulio</t>
+          <t>Hussain</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Otavalo</t>
+          <t>Salih</t>
         </is>
       </c>
       <c r="D11">
@@ -36231,19 +36219,17 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>251</t>
-        </is>
+      <c r="A12" t="n">
+        <v>252</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Nimisha</t>
+          <t>Zaynul</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Sukhwani</t>
+          <t>Miah</t>
         </is>
       </c>
       <c r="D12">
@@ -36288,19 +36274,17 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>246</t>
-        </is>
+      <c r="A13" t="n">
+        <v>248</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Fady</t>
+          <t>Aditya</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Nabil</t>
+          <t>Kumar</t>
         </is>
       </c>
       <c r="D13">
@@ -36345,19 +36329,17 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>242</t>
-        </is>
+      <c r="A14" t="n">
+        <v>244</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Soran</t>
+          <t>Abdulhayyu</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Ghaderi</t>
+          <t>Abubakar</t>
         </is>
       </c>
       <c r="D14">
@@ -36402,19 +36384,17 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>238</t>
-        </is>
+      <c r="A15" t="n">
+        <v>240</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Wachiou</t>
+          <t>Norman</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>BOURAIMA</t>
+          <t>Lam</t>
         </is>
       </c>
       <c r="D15">
@@ -36459,19 +36439,17 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>232</t>
-        </is>
+      <c r="A16" t="n">
+        <v>238</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Najib</t>
+          <t>Wachiou</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Chowdhury</t>
+          <t>BOURAIMA</t>
         </is>
       </c>
       <c r="D16">
@@ -36516,19 +36494,17 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>225</t>
-        </is>
+      <c r="A17" t="n">
+        <v>230</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Hyogeun</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Oh</t>
+          <t>Winner</t>
         </is>
       </c>
       <c r="D17">
@@ -36573,19 +36549,17 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>223</t>
-        </is>
+      <c r="A18" t="n">
+        <v>229</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Alireza</t>
+          <t>Talib</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Hosseini</t>
+          <t>Sayyed</t>
         </is>
       </c>
       <c r="D18">
@@ -36630,19 +36604,17 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>222</t>
-        </is>
+      <c r="A19" t="n">
+        <v>226</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Shrutakeerti</t>
+          <t>Ying-Jung</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Datta</t>
+          <t>Chen</t>
         </is>
       </c>
       <c r="D19">
@@ -36687,21 +36659,15 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>218</t>
-        </is>
+      <c r="A20" t="n">
+        <v>221</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Asif</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Ameer</t>
-        </is>
-      </c>
+          <t>Sangofweb3</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20">
         <f>SUMPRODUCT(--('Review Sheet'!I488:I489="Yes"))</f>
         <v/>
@@ -36744,19 +36710,17 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>215</t>
-        </is>
+      <c r="A21" t="n">
+        <v>219</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Varala</t>
+          <t>Derbew</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Swapnik</t>
+          <t>Felasman</t>
         </is>
       </c>
       <c r="D21">
@@ -36801,19 +36765,17 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>209</t>
-        </is>
+      <c r="A22" t="n">
+        <v>215</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Kelvin</t>
+          <t>Varala</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Rotich</t>
+          <t>Swapnik</t>
         </is>
       </c>
       <c r="D22">
@@ -36858,19 +36820,17 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>208</t>
-        </is>
+      <c r="A23" t="n">
+        <v>211</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ed</t>
+          <t>Akilsurya</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Sivakumar</t>
         </is>
       </c>
       <c r="D23">
@@ -36915,19 +36875,17 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>205</t>
-        </is>
+      <c r="A24" t="n">
+        <v>207</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Koki</t>
+          <t>Tan</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Mitsunami</t>
+          <t>Seng</t>
         </is>
       </c>
       <c r="D24">
@@ -36972,19 +36930,17 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>199</t>
-        </is>
+      <c r="A25" t="n">
+        <v>203</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Natia</t>
+          <t>Kunal</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Kukhilava</t>
+          <t>Mishra</t>
         </is>
       </c>
       <c r="D25">
@@ -37029,19 +36985,17 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>194</t>
-        </is>
+      <c r="A26" t="n">
+        <v>196</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Usamah</t>
+          <t>Dominica</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Zaheer</t>
+          <t>Amanfo</t>
         </is>
       </c>
       <c r="D26">
@@ -37086,10 +37040,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>191</t>
-        </is>
+      <c r="A27" t="n">
+        <v>191</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -37143,19 +37095,17 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>183</t>
-        </is>
+      <c r="A28" t="n">
+        <v>185</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Dr</t>
+          <t>sakigokul</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Kapoor</t>
+          <t>m</t>
         </is>
       </c>
       <c r="D28">
@@ -37200,10 +37150,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
+      <c r="A29" t="n">
+        <v>180</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -37257,17 +37205,19 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>177</t>
-        </is>
+      <c r="A30" t="n">
+        <v>173</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>尹珉</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
+          <t>Alpha</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Coma</t>
+        </is>
+      </c>
       <c r="D30">
         <f>SUMPRODUCT(--('Review Sheet'!I758:I759="Yes"))</f>
         <v/>
@@ -37310,19 +37260,17 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>173</t>
-        </is>
+      <c r="A31" t="n">
+        <v>167</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Alpha</t>
+          <t>Yoshitomo</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Coma</t>
+          <t>Matsubara</t>
         </is>
       </c>
       <c r="D31">
@@ -37367,19 +37315,17 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
+      <c r="A32" t="n">
+        <v>166</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Sanjoy</t>
+          <t>Chris</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Kumar</t>
+          <t>Kid</t>
         </is>
       </c>
       <c r="D32">
@@ -37424,19 +37370,17 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>166</t>
-        </is>
+      <c r="A33" t="n">
+        <v>163</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Chris</t>
+          <t>Mohamed</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Kid</t>
+          <t>Nazif</t>
         </is>
       </c>
       <c r="D33">
@@ -37481,19 +37425,17 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
+      <c r="A34" t="n">
+        <v>159</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Ephraim</t>
+          <t>Jieke</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Mwereza</t>
+          <t>Choo</t>
         </is>
       </c>
       <c r="D34">
@@ -37538,19 +37480,17 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>159</t>
-        </is>
+      <c r="A35" t="n">
+        <v>155</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Jieke</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Choo</t>
+          <t>Ribeiro</t>
         </is>
       </c>
       <c r="D35">
@@ -37595,19 +37535,17 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>154</t>
-        </is>
+      <c r="A36" t="n">
+        <v>152</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Alejandro</t>
+          <t>Zesheng</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ferrer</t>
+          <t>Zong</t>
         </is>
       </c>
       <c r="D36">
@@ -37652,19 +37590,17 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
+      <c r="A37" t="n">
+        <v>149</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Zesheng</t>
+          <t>TALMEEZ</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Zong</t>
+          <t>FUAAD</t>
         </is>
       </c>
       <c r="D37">
@@ -37709,19 +37645,17 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>148</t>
-        </is>
+      <c r="A38" t="n">
+        <v>145</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Dr.</t>
+          <t>Ezekiel</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Rahevar</t>
+          <t>Mathias</t>
         </is>
       </c>
       <c r="D38">
@@ -37766,19 +37700,17 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>144</t>
-        </is>
+      <c r="A39" t="n">
+        <v>142</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Bassey</t>
+          <t>Grace</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Ene</t>
+          <t>Gong</t>
         </is>
       </c>
       <c r="D39">
@@ -37823,19 +37755,17 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
+      <c r="A40" t="n">
+        <v>135</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Grace</t>
+          <t>Sadhana</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Gong</t>
+          <t>Panthi</t>
         </is>
       </c>
       <c r="D40">
@@ -37880,19 +37810,17 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>138</t>
-        </is>
+      <c r="A41" t="n">
+        <v>132</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Haq</t>
+          <t>Aakash</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Malik</t>
+          <t>Rana</t>
         </is>
       </c>
       <c r="D41">
@@ -37937,19 +37865,17 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>130</t>
-        </is>
+      <c r="A42" t="n">
+        <v>131</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Ciro</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Russo</t>
+          <t>Lopez</t>
         </is>
       </c>
       <c r="D42">
@@ -37994,19 +37920,17 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>128</t>
-        </is>
+      <c r="A43" t="n">
+        <v>126</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Kuyeso</t>
+          <t>Trisan</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Rogers</t>
+          <t>Wagle</t>
         </is>
       </c>
       <c r="D43">
@@ -38051,19 +37975,17 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>126</t>
-        </is>
+      <c r="A44" t="n">
+        <v>123</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Trisan</t>
+          <t>Karn</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Wagle</t>
+          <t>Watcharasupat</t>
         </is>
       </c>
       <c r="D44">
@@ -38108,19 +38030,17 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>114</t>
-        </is>
+      <c r="A45" t="n">
+        <v>119</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ibrahim</t>
+          <t>Arun</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Fadhili</t>
+          <t>Bhandari</t>
         </is>
       </c>
       <c r="D45">
@@ -38165,19 +38085,17 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>113</t>
-        </is>
+      <c r="A46" t="n">
+        <v>115</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Saroj</t>
+          <t>Muhammad</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Dahal</t>
+          <t>Hamid</t>
         </is>
       </c>
       <c r="D46">
@@ -38222,21 +38140,15 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>112</t>
-        </is>
+      <c r="A47" t="n">
+        <v>111</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Nicabed</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Gathaba</t>
-        </is>
-      </c>
+          <t>samman</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
       <c r="D47">
         <f>SUMPRODUCT(--('Review Sheet'!I1217:I1218="Yes"))</f>
         <v/>
@@ -38279,14 +38191,12 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
+      <c r="A48" t="n">
+        <v>107</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>samman</t>
+          <t>Argo</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -38332,19 +38242,17 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>108</t>
-        </is>
+      <c r="A49" t="n">
+        <v>105</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Jayed</t>
+          <t>Harini</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Mansur</t>
+          <t>Anand</t>
         </is>
       </c>
       <c r="D49">
@@ -38389,19 +38297,17 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
+      <c r="A50" t="n">
+        <v>102</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Harini</t>
+          <t>Muhammad</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Anand</t>
+          <t>Shaukat</t>
         </is>
       </c>
       <c r="D50">
@@ -38446,19 +38352,17 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
+      <c r="A51" t="n">
+        <v>98</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ahmed</t>
+          <t>Herumb</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Mouad</t>
+          <t>Shandilya</t>
         </is>
       </c>
       <c r="D51">
@@ -38503,19 +38407,17 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
+      <c r="A52" t="n">
+        <v>95</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Jam</t>
+          <t>Sandhya</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Villarosa</t>
+          <t>Karki</t>
         </is>
       </c>
       <c r="D52">
@@ -38560,10 +38462,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
+      <c r="A53" t="n">
+        <v>90</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -38617,19 +38517,17 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
+      <c r="A54" t="n">
+        <v>88</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Muhammad</t>
+          <t>Umair</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Khan</t>
+          <t>Inayat</t>
         </is>
       </c>
       <c r="D54">
@@ -38674,19 +38572,17 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
+      <c r="A55" t="n">
+        <v>84</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Syed</t>
+          <t>Lazhar</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>raza</t>
+          <t>Bouacha</t>
         </is>
       </c>
       <c r="D55">
@@ -38731,10 +38627,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
+      <c r="A56" t="n">
+        <v>81</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -38788,19 +38682,17 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
+      <c r="A57" t="n">
+        <v>73</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Satyam</t>
+          <t>Muhammad</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Kumar</t>
+          <t>Rebaal</t>
         </is>
       </c>
       <c r="D57">
@@ -38845,19 +38737,17 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
+      <c r="A58" t="n">
+        <v>70</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Marimuthu</t>
+          <t>Md</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Kalimuthu</t>
+          <t>Rahi</t>
         </is>
       </c>
       <c r="D58">
@@ -38902,19 +38792,17 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
+      <c r="A59" t="n">
+        <v>69</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Md</t>
+          <t>Windsor</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Rahi</t>
+          <t>Nguyen</t>
         </is>
       </c>
       <c r="D59">
@@ -38959,19 +38847,17 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
+      <c r="A60" t="n">
+        <v>67</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SIDOW</t>
+          <t>Amir</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SIDOW</t>
+          <t>Bhattarai</t>
         </is>
       </c>
       <c r="D60">
@@ -39016,19 +38902,17 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
+      <c r="A61" t="n">
+        <v>64</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Fedor</t>
+          <t>Abdul</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Shabashev</t>
+          <t>Khan</t>
         </is>
       </c>
       <c r="D61">
@@ -39073,19 +38957,17 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
+      <c r="A62" t="n">
+        <v>58</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Prakash</t>
+          <t>Hamza</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Baburaj</t>
+          <t>Gbada</t>
         </is>
       </c>
       <c r="D62">
@@ -39130,10 +39012,8 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
+      <c r="A63" t="n">
+        <v>55</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -39187,19 +39067,17 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
+      <c r="A64" t="n">
+        <v>51</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Mazen</t>
+          <t>Kevin</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Alotaibi</t>
+          <t>Vega</t>
         </is>
       </c>
       <c r="D64">
@@ -39244,19 +39122,17 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
+      <c r="A65" t="n">
+        <v>47</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Pradheep</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Goheen</t>
+          <t>Raghavan</t>
         </is>
       </c>
       <c r="D65">
@@ -39301,19 +39177,17 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
+      <c r="A66" t="n">
+        <v>41</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Pradheep</t>
+          <t>Wajahat</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Raghavan</t>
+          <t>Khan</t>
         </is>
       </c>
       <c r="D66">
@@ -39358,19 +39232,17 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
+      <c r="A67" t="n">
+        <v>33</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Yadnyesh</t>
+          <t>shashanka</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Chakane</t>
+          <t>br</t>
         </is>
       </c>
       <c r="D67">
@@ -39415,19 +39287,17 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+      <c r="A68" t="n">
+        <v>31</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Md</t>
+          <t>Irakli</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Shad</t>
+          <t>Salia</t>
         </is>
       </c>
       <c r="D68">
@@ -39468,63 +39338,6 @@
       </c>
       <c r="M68">
         <f>SUM(D68,E68,F68,G68,H68,I68,J68,K68,L68)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Ameer</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Hadi</t>
-        </is>
-      </c>
-      <c r="D69">
-        <f>SUMPRODUCT(--('Review Sheet'!I1811:I1812="Yes"))</f>
-        <v/>
-      </c>
-      <c r="E69">
-        <f>SUMPRODUCT(--('Review Sheet'!I1813:I1815="Yes"))</f>
-        <v/>
-      </c>
-      <c r="F69">
-        <f>SUMPRODUCT(--('Review Sheet'!I1816:I1817="Yes"))</f>
-        <v/>
-      </c>
-      <c r="G69">
-        <f>SUMPRODUCT(--('Review Sheet'!I1818:I1824="Yes"))</f>
-        <v/>
-      </c>
-      <c r="H69">
-        <f>SUMPRODUCT(--('Review Sheet'!I1825:I1828="Yes"))</f>
-        <v/>
-      </c>
-      <c r="I69">
-        <f>SUMPRODUCT(--('Review Sheet'!I1829:I1830="Yes"))</f>
-        <v/>
-      </c>
-      <c r="J69">
-        <f>SUMPRODUCT(--('Review Sheet'!I1831:I1832="Yes"))</f>
-        <v/>
-      </c>
-      <c r="K69">
-        <f>SUMPRODUCT(--('Review Sheet'!I1833:I1836="Yes"))</f>
-        <v/>
-      </c>
-      <c r="L69">
-        <f>SUMPRODUCT(--('Review Sheet'!I1837:I1837="Yes"))</f>
-        <v/>
-      </c>
-      <c r="M69">
-        <f>SUM(D69,E69,F69,G69,H69,I69,J69,K69,L69)</f>
         <v/>
       </c>
     </row>
